--- a/List of questions.xlsx
+++ b/List of questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\BTech\semester4\450 dsa questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69664978-1536-44DC-9B61-5C2C3222A303}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFCD0F5-7498-4424-A410-41AF8E9CB580}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="486">
   <si>
     <t>Topic:</t>
   </si>
@@ -1480,6 +1480,9 @@
   </si>
   <si>
     <t xml:space="preserve">*Moore algorithm* (Do try) </t>
+  </si>
+  <si>
+    <t>Do revise median of median</t>
   </si>
 </sst>
 </file>
@@ -1994,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A272" zoomScale="61" workbookViewId="0">
+      <selection activeCell="A288" sqref="A288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6138,8 +6141,8 @@
       <c r="C288" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D288" s="3" t="s">
-        <v>3</v>
+      <c r="D288" s="11" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="21">
@@ -6770,11 +6773,11 @@
       <c r="C336" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D336" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" ht="21">
+      <c r="D336" s="11" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="21">
       <c r="A337" s="13">
         <v>2</v>
       </c>
@@ -6784,11 +6787,11 @@
       <c r="C337" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D337" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" ht="21">
+      <c r="D337" s="11" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="21">
       <c r="A338" s="13">
         <v>3</v>
       </c>
@@ -6798,11 +6801,11 @@
       <c r="C338" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D338" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" ht="21">
+      <c r="D338" s="11" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="21">
       <c r="A339" s="13">
         <v>4</v>
       </c>
@@ -6812,11 +6815,11 @@
       <c r="C339" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="D339" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" ht="21">
+      <c r="D339" s="11" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" ht="21">
       <c r="A340" s="13">
         <v>5</v>
       </c>
@@ -6826,11 +6829,14 @@
       <c r="C340" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="D340" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" ht="21">
+      <c r="D340" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="21">
       <c r="A341" s="13">
         <v>6</v>
       </c>
@@ -6844,7 +6850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="21">
+    <row r="342" spans="1:5" ht="21">
       <c r="A342" s="13">
         <v>7</v>
       </c>
@@ -6858,7 +6864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="21">
+    <row r="343" spans="1:5" ht="21">
       <c r="A343" s="13">
         <v>8</v>
       </c>
@@ -6872,7 +6878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="21">
+    <row r="344" spans="1:5" ht="21">
       <c r="A344" s="13">
         <v>9</v>
       </c>
@@ -6886,7 +6892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="21">
+    <row r="345" spans="1:5" ht="21">
       <c r="A345" s="13">
         <v>10</v>
       </c>
@@ -6900,7 +6906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="21">
+    <row r="346" spans="1:5" ht="21">
       <c r="A346" s="13">
         <v>11</v>
       </c>
@@ -6914,7 +6920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="21">
+    <row r="347" spans="1:5" ht="21">
       <c r="A347" s="13">
         <v>12</v>
       </c>
@@ -6928,7 +6934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="21">
+    <row r="348" spans="1:5" ht="21">
       <c r="A348" s="13">
         <v>13</v>
       </c>
@@ -6942,7 +6948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="21">
+    <row r="349" spans="1:5" ht="21">
       <c r="A349" s="13">
         <v>14</v>
       </c>
@@ -6956,7 +6962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="21">
+    <row r="350" spans="1:5" ht="21">
       <c r="A350" s="13">
         <v>15</v>
       </c>
@@ -6970,7 +6976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="21">
+    <row r="351" spans="1:5" ht="21">
       <c r="A351" s="13">
         <v>16</v>
       </c>
@@ -6984,7 +6990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="21">
+    <row r="352" spans="1:5" ht="21">
       <c r="A352" s="13">
         <v>17</v>
       </c>

--- a/List of questions.xlsx
+++ b/List of questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\BTech\semester4\450 dsa questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFCD0F5-7498-4424-A410-41AF8E9CB580}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0DFDE9-39AA-4EC5-997F-D4D573FD9A09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="490">
   <si>
     <t>Topic:</t>
   </si>
@@ -1483,6 +1483,18 @@
   </si>
   <si>
     <t>Do revise median of median</t>
+  </si>
+  <si>
+    <t>got tle on first attempt, do check the optimization</t>
+  </si>
+  <si>
+    <t>must revise</t>
+  </si>
+  <si>
+    <t>think abt what DS should be used</t>
+  </si>
+  <si>
+    <t>could not think of O(n) approach</t>
   </si>
 </sst>
 </file>
@@ -1997,8 +2009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" zoomScale="61" workbookViewId="0">
-      <selection activeCell="A288" sqref="A288"/>
+    <sheetView tabSelected="1" topLeftCell="A353" zoomScale="61" workbookViewId="0">
+      <selection activeCell="H378" sqref="H378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2006,7 +2018,7 @@
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="119.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.796875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.19921875" style="19"/>
     <col min="8" max="8" width="54.69921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.8984375" bestFit="1" customWidth="1"/>
@@ -2022,7 +2034,7 @@
       </c>
       <c r="E2" s="17">
         <f>SUM(F6:F481)</f>
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29.4">
@@ -2031,7 +2043,7 @@
       </c>
       <c r="E3" s="17">
         <f>2*E2/9</f>
-        <v>17.555555555555557</v>
+        <v>21.333333333333332</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21">
@@ -6145,7 +6157,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="21">
+    <row r="289" spans="1:5" ht="21">
       <c r="A289" s="13">
         <v>15</v>
       </c>
@@ -6159,7 +6171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="21">
+    <row r="290" spans="1:5" ht="21">
       <c r="A290" s="13">
         <v>16</v>
       </c>
@@ -6173,7 +6185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="21">
+    <row r="291" spans="1:5" ht="21">
       <c r="A291" s="13">
         <v>17</v>
       </c>
@@ -6187,7 +6199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="21">
+    <row r="292" spans="1:5" ht="21">
       <c r="A292" s="13">
         <v>18</v>
       </c>
@@ -6201,7 +6213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="21">
+    <row r="293" spans="1:5" ht="21">
       <c r="A293" s="13">
         <v>19</v>
       </c>
@@ -6215,15 +6227,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="21">
+    <row r="294" spans="1:5" ht="21">
       <c r="C294" s="6"/>
       <c r="D294" s="3"/>
     </row>
-    <row r="295" spans="1:4" ht="21">
+    <row r="295" spans="1:5" ht="21">
       <c r="C295" s="6"/>
       <c r="D295" s="3"/>
     </row>
-    <row r="296" spans="1:4" ht="21">
+    <row r="296" spans="1:5" ht="21">
       <c r="A296" s="13">
         <v>1</v>
       </c>
@@ -6234,10 +6246,10 @@
         <v>285</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="21">
       <c r="A297" s="13">
         <v>2</v>
       </c>
@@ -6251,7 +6263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="21">
+    <row r="298" spans="1:5" ht="21">
       <c r="A298" s="13">
         <v>3</v>
       </c>
@@ -6262,10 +6274,10 @@
         <v>287</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="21">
       <c r="A299" s="13">
         <v>4</v>
       </c>
@@ -6278,8 +6290,11 @@
       <c r="D299" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" ht="21">
+      <c r="E299" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="21">
       <c r="A300" s="13">
         <v>5</v>
       </c>
@@ -6293,7 +6308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="21">
+    <row r="301" spans="1:5" ht="21">
       <c r="A301" s="13">
         <v>6</v>
       </c>
@@ -6307,7 +6322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="21">
+    <row r="302" spans="1:5" ht="21">
       <c r="A302" s="13">
         <v>7</v>
       </c>
@@ -6321,7 +6336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="21">
+    <row r="303" spans="1:5" ht="21">
       <c r="A303" s="13">
         <v>8</v>
       </c>
@@ -6335,7 +6350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="21">
+    <row r="304" spans="1:5" ht="21">
       <c r="A304" s="13">
         <v>9</v>
       </c>
@@ -6349,7 +6364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="21">
+    <row r="305" spans="1:6" ht="21">
       <c r="A305" s="13">
         <v>10</v>
       </c>
@@ -6359,11 +6374,17 @@
       <c r="C305" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D305" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" ht="21">
+      <c r="D305" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="F305" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="21">
       <c r="A306" s="13">
         <v>11</v>
       </c>
@@ -6377,7 +6398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="21">
+    <row r="307" spans="1:6" ht="21">
       <c r="A307" s="13">
         <v>12</v>
       </c>
@@ -6391,7 +6412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="21">
+    <row r="308" spans="1:6" ht="21">
       <c r="A308" s="13">
         <v>13</v>
       </c>
@@ -6405,7 +6426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="21">
+    <row r="309" spans="1:6" ht="21">
       <c r="A309" s="13">
         <v>14</v>
       </c>
@@ -6419,7 +6440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="21">
+    <row r="310" spans="1:6" ht="21">
       <c r="A310" s="13">
         <v>15</v>
       </c>
@@ -6433,7 +6454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="21">
+    <row r="311" spans="1:6" ht="21">
       <c r="A311" s="13">
         <v>16</v>
       </c>
@@ -6447,7 +6468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="21">
+    <row r="312" spans="1:6" ht="21">
       <c r="A312" s="13">
         <v>17</v>
       </c>
@@ -6461,7 +6482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="21">
+    <row r="313" spans="1:6" ht="21">
       <c r="A313" s="13">
         <v>18</v>
       </c>
@@ -6475,7 +6496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="21">
+    <row r="314" spans="1:6" ht="21">
       <c r="A314" s="13">
         <v>19</v>
       </c>
@@ -6489,7 +6510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="21">
+    <row r="315" spans="1:6" ht="21">
       <c r="A315" s="13">
         <v>20</v>
       </c>
@@ -6503,7 +6524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="21">
+    <row r="316" spans="1:6" ht="21">
       <c r="A316" s="13">
         <v>21</v>
       </c>
@@ -6517,7 +6538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="21">
+    <row r="317" spans="1:6" ht="21">
       <c r="A317" s="13">
         <v>22</v>
       </c>
@@ -6531,7 +6552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="21">
+    <row r="318" spans="1:6" ht="21">
       <c r="A318" s="13">
         <v>23</v>
       </c>
@@ -6545,7 +6566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="21">
+    <row r="319" spans="1:6" ht="21">
       <c r="A319" s="13">
         <v>24</v>
       </c>
@@ -6559,7 +6580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="21">
+    <row r="320" spans="1:6" ht="21">
       <c r="A320" s="13">
         <v>25</v>
       </c>
@@ -7004,7 +7025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="21">
+    <row r="353" spans="1:6" ht="21">
       <c r="A353" s="13">
         <v>18</v>
       </c>
@@ -7018,15 +7039,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="21">
+    <row r="354" spans="1:6" ht="21">
       <c r="C354" s="6"/>
       <c r="D354" s="3"/>
     </row>
-    <row r="355" spans="1:4" ht="21">
+    <row r="355" spans="1:6" ht="21">
       <c r="C355" s="6"/>
       <c r="D355" s="3"/>
     </row>
-    <row r="356" spans="1:4" ht="21">
+    <row r="356" spans="1:6" ht="21">
       <c r="A356" s="13">
         <v>1</v>
       </c>
@@ -7036,11 +7057,14 @@
       <c r="C356" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D356" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" ht="21">
+      <c r="D356" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F356" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" ht="21">
       <c r="A357" s="13">
         <v>2</v>
       </c>
@@ -7050,11 +7074,14 @@
       <c r="C357" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D357" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" ht="21">
+      <c r="D357" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F357" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" ht="21">
       <c r="A358" s="13">
         <v>3</v>
       </c>
@@ -7064,11 +7091,14 @@
       <c r="C358" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D358" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" ht="21">
+      <c r="D358" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F358" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" ht="21">
       <c r="A359" s="13">
         <v>4</v>
       </c>
@@ -7078,11 +7108,14 @@
       <c r="C359" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D359" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" ht="21">
+      <c r="D359" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F359" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" ht="21">
       <c r="A360" s="13">
         <v>5</v>
       </c>
@@ -7092,11 +7125,14 @@
       <c r="C360" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D360" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" ht="21">
+      <c r="D360" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F360" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" ht="21">
       <c r="A361" s="13">
         <v>6</v>
       </c>
@@ -7106,11 +7142,14 @@
       <c r="C361" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D361" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" ht="21">
+      <c r="D361" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F361" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" ht="21">
       <c r="A362" s="13">
         <v>7</v>
       </c>
@@ -7120,11 +7159,14 @@
       <c r="C362" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="D362" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" ht="21">
+      <c r="D362" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F362" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" ht="21">
       <c r="A363" s="13">
         <v>8</v>
       </c>
@@ -7134,11 +7176,14 @@
       <c r="C363" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D363" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" ht="21">
+      <c r="D363" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F363" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" ht="21">
       <c r="A364" s="13">
         <v>9</v>
       </c>
@@ -7148,11 +7193,14 @@
       <c r="C364" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="D364" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" ht="21">
+      <c r="D364" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F364" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" ht="21">
       <c r="A365" s="13">
         <v>10</v>
       </c>
@@ -7162,11 +7210,14 @@
       <c r="C365" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="D365" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" ht="21">
+      <c r="D365" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F365" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" ht="21">
       <c r="A366" s="13">
         <v>11</v>
       </c>
@@ -7176,11 +7227,17 @@
       <c r="C366" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="D366" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" ht="21">
+      <c r="D366" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="F366" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" ht="21">
       <c r="A367" s="13">
         <v>12</v>
       </c>
@@ -7190,11 +7247,17 @@
       <c r="C367" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D367" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" ht="21">
+      <c r="D367" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="E367" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="F367" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" ht="21">
       <c r="A368" s="13">
         <v>13</v>
       </c>
@@ -7204,11 +7267,14 @@
       <c r="C368" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="D368" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" ht="21">
+      <c r="D368" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F368" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" ht="21">
       <c r="A369" s="13">
         <v>14</v>
       </c>
@@ -7218,11 +7284,14 @@
       <c r="C369" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D369" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" ht="21">
+      <c r="D369" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F369" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" ht="21">
       <c r="A370" s="13">
         <v>15</v>
       </c>
@@ -7232,11 +7301,14 @@
       <c r="C370" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="D370" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" ht="21">
+      <c r="D370" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F370" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" ht="21">
       <c r="A371" s="13">
         <v>16</v>
       </c>
@@ -7250,7 +7322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="21">
+    <row r="372" spans="1:6" ht="21">
       <c r="A372" s="13">
         <v>17</v>
       </c>
@@ -7264,7 +7336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="21">
+    <row r="373" spans="1:6" ht="21">
       <c r="A373" s="13">
         <v>18</v>
       </c>
@@ -7278,7 +7350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="21">
+    <row r="374" spans="1:6" ht="21">
       <c r="A374" s="13">
         <v>19</v>
       </c>
@@ -7292,7 +7364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="21">
+    <row r="375" spans="1:6" ht="21">
       <c r="A375" s="13">
         <v>20</v>
       </c>
@@ -7306,7 +7378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="21">
+    <row r="376" spans="1:6" ht="21">
       <c r="A376" s="13">
         <v>21</v>
       </c>
@@ -7320,7 +7392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="21">
+    <row r="377" spans="1:6" ht="21">
       <c r="A377" s="13">
         <v>22</v>
       </c>
@@ -7334,7 +7406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="21">
+    <row r="378" spans="1:6" ht="21">
       <c r="A378" s="13">
         <v>23</v>
       </c>
@@ -7348,7 +7420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="21">
+    <row r="379" spans="1:6" ht="21">
       <c r="A379" s="13">
         <v>24</v>
       </c>
@@ -7362,7 +7434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="21">
+    <row r="380" spans="1:6" ht="21">
       <c r="A380" s="13">
         <v>25</v>
       </c>
@@ -7376,7 +7448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="21">
+    <row r="381" spans="1:6" ht="21">
       <c r="A381" s="13">
         <v>26</v>
       </c>
@@ -7390,7 +7462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="21">
+    <row r="382" spans="1:6" ht="21">
       <c r="A382" s="13">
         <v>27</v>
       </c>
@@ -7404,7 +7476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="21">
+    <row r="383" spans="1:6" ht="21">
       <c r="A383" s="13">
         <v>28</v>
       </c>
@@ -7418,7 +7490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="21">
+    <row r="384" spans="1:6" ht="21">
       <c r="A384" s="13">
         <v>29</v>
       </c>
@@ -8620,6 +8692,9 @@
       </c>
       <c r="D473" s="11" t="s">
         <v>463</v>
+      </c>
+      <c r="F473" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:6" ht="21">

--- a/List of questions.xlsx
+++ b/List of questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\BTech\semester4\450 dsa questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0DFDE9-39AA-4EC5-997F-D4D573FD9A09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF739DB-DD81-413F-AD74-AA6FE151EC8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="493">
   <si>
     <t>Topic:</t>
   </si>
@@ -1495,6 +1495,15 @@
   </si>
   <si>
     <t>could not think of O(n) approach</t>
+  </si>
+  <si>
+    <t>efficient approach is impo</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>revise formula</t>
   </si>
 </sst>
 </file>
@@ -2009,14 +2018,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A353" zoomScale="61" workbookViewId="0">
-      <selection activeCell="H378" sqref="H378"/>
+    <sheetView tabSelected="1" topLeftCell="A280" zoomScale="61" workbookViewId="0">
+      <selection activeCell="D377" sqref="D377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="119.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="116.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.796875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.19921875" style="19"/>
@@ -2034,7 +2043,7 @@
       </c>
       <c r="E2" s="17">
         <f>SUM(F6:F481)</f>
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29.4">
@@ -2043,7 +2052,7 @@
       </c>
       <c r="E3" s="17">
         <f>2*E2/9</f>
-        <v>21.333333333333332</v>
+        <v>24.222222222222221</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21">
@@ -6157,7 +6166,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="21">
+    <row r="289" spans="1:6" ht="21">
       <c r="A289" s="13">
         <v>15</v>
       </c>
@@ -6171,7 +6180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="21">
+    <row r="290" spans="1:6" ht="21">
       <c r="A290" s="13">
         <v>16</v>
       </c>
@@ -6185,7 +6194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="21">
+    <row r="291" spans="1:6" ht="21">
       <c r="A291" s="13">
         <v>17</v>
       </c>
@@ -6199,7 +6208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="21">
+    <row r="292" spans="1:6" ht="21">
       <c r="A292" s="13">
         <v>18</v>
       </c>
@@ -6213,7 +6222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="21">
+    <row r="293" spans="1:6" ht="21">
       <c r="A293" s="13">
         <v>19</v>
       </c>
@@ -6227,15 +6236,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="21">
+    <row r="294" spans="1:6" ht="21">
       <c r="C294" s="6"/>
       <c r="D294" s="3"/>
     </row>
-    <row r="295" spans="1:5" ht="21">
+    <row r="295" spans="1:6" ht="21">
       <c r="C295" s="6"/>
       <c r="D295" s="3"/>
     </row>
-    <row r="296" spans="1:5" ht="21">
+    <row r="296" spans="1:6" ht="21">
       <c r="A296" s="13">
         <v>1</v>
       </c>
@@ -6245,11 +6254,14 @@
       <c r="C296" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D296" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" ht="21">
+      <c r="D296" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F296" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="21">
       <c r="A297" s="13">
         <v>2</v>
       </c>
@@ -6259,11 +6271,14 @@
       <c r="C297" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D297" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" ht="21">
+      <c r="D297" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F297" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="21">
       <c r="A298" s="13">
         <v>3</v>
       </c>
@@ -6273,11 +6288,14 @@
       <c r="C298" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D298" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" ht="21">
+      <c r="D298" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F298" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="21">
       <c r="A299" s="13">
         <v>4</v>
       </c>
@@ -6287,14 +6305,17 @@
       <c r="C299" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D299" s="3" t="s">
-        <v>3</v>
+      <c r="D299" s="11" t="s">
+        <v>463</v>
       </c>
       <c r="E299" s="3" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" ht="21">
+      <c r="F299" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="21">
       <c r="A300" s="13">
         <v>5</v>
       </c>
@@ -6307,8 +6328,11 @@
       <c r="D300" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" ht="21">
+      <c r="E300" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="21">
       <c r="A301" s="13">
         <v>6</v>
       </c>
@@ -6318,11 +6342,14 @@
       <c r="C301" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D301" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" ht="21">
+      <c r="D301" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F301" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="21">
       <c r="A302" s="13">
         <v>7</v>
       </c>
@@ -6332,11 +6359,14 @@
       <c r="C302" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D302" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" ht="21">
+      <c r="D302" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F302" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="21">
       <c r="A303" s="13">
         <v>8</v>
       </c>
@@ -6350,7 +6380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="21">
+    <row r="304" spans="1:6" ht="21">
       <c r="A304" s="13">
         <v>9</v>
       </c>
@@ -6360,8 +6390,11 @@
       <c r="C304" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D304" s="3" t="s">
-        <v>3</v>
+      <c r="D304" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F304" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="21">
@@ -7318,8 +7351,11 @@
       <c r="C371" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D371" s="3" t="s">
-        <v>3</v>
+      <c r="D371" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F371" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:6" ht="21">
@@ -7332,8 +7368,11 @@
       <c r="C372" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D372" s="3" t="s">
-        <v>3</v>
+      <c r="D372" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F372" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:6" ht="21">
@@ -7346,8 +7385,14 @@
       <c r="C373" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D373" s="3" t="s">
-        <v>3</v>
+      <c r="D373" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="E373" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F373" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:6" ht="21">
@@ -7360,8 +7405,14 @@
       <c r="C374" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D374" s="3" t="s">
-        <v>3</v>
+      <c r="D374" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="E374" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F374" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:6" ht="21">
@@ -7374,8 +7425,14 @@
       <c r="C375" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D375" s="3" t="s">
-        <v>3</v>
+      <c r="D375" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="E375" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F375" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:6" ht="21">
@@ -7388,8 +7445,8 @@
       <c r="C376" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D376" s="3" t="s">
-        <v>3</v>
+      <c r="D376" s="11" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="377" spans="1:6" ht="21">
@@ -7444,8 +7501,11 @@
       <c r="C380" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D380" s="3" t="s">
-        <v>3</v>
+      <c r="D380" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F380" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:6" ht="21">

--- a/List of questions.xlsx
+++ b/List of questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\BTech\semester4\450 dsa questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF739DB-DD81-413F-AD74-AA6FE151EC8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4219E16-457E-40BE-A13C-712F3C3AF453}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="501">
   <si>
     <t>Topic:</t>
   </si>
@@ -1497,13 +1497,37 @@
     <t>could not think of O(n) approach</t>
   </si>
   <si>
-    <t>efficient approach is impo</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
     <t>revise formula</t>
+  </si>
+  <si>
+    <t>v. imp: bit difficult for me</t>
+  </si>
+  <si>
+    <t>could not solve</t>
+  </si>
+  <si>
+    <t>efficient approach is impo, do implement while revising</t>
+  </si>
+  <si>
+    <t>optimized approach is must to revise</t>
+  </si>
+  <si>
+    <t>impo.</t>
+  </si>
+  <si>
+    <t>do check, nice use of bits manipulation</t>
+  </si>
+  <si>
+    <t>revise optimized approach</t>
+  </si>
+  <si>
+    <t>good question</t>
+  </si>
+  <si>
+    <t>Difficult, Could not solve</t>
   </si>
 </sst>
 </file>
@@ -2018,8 +2042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" zoomScale="61" workbookViewId="0">
-      <selection activeCell="D377" sqref="D377"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="61" workbookViewId="0">
+      <selection activeCell="G219" sqref="G219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2027,7 +2051,7 @@
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="116.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.09765625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.19921875" style="19"/>
     <col min="8" max="8" width="54.69921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.8984375" bestFit="1" customWidth="1"/>
@@ -2043,7 +2067,7 @@
       </c>
       <c r="E2" s="17">
         <f>SUM(F6:F481)</f>
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29.4">
@@ -2052,7 +2076,7 @@
       </c>
       <c r="E3" s="17">
         <f>2*E2/9</f>
-        <v>24.222222222222221</v>
+        <v>27.111111111111111</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21">
@@ -5082,7 +5106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="21">
+    <row r="209" spans="1:6" ht="21">
       <c r="A209" s="13">
         <v>33</v>
       </c>
@@ -5096,7 +5120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="21">
+    <row r="210" spans="1:6" ht="21">
       <c r="A210" s="13">
         <v>34</v>
       </c>
@@ -5110,7 +5134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="21">
+    <row r="211" spans="1:6" ht="21">
       <c r="A211" s="13">
         <v>35</v>
       </c>
@@ -5124,18 +5148,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="21">
+    <row r="212" spans="1:6" ht="21">
       <c r="A212" s="13"/>
       <c r="B212" s="7"/>
       <c r="C212" s="6"/>
       <c r="D212" s="3"/>
     </row>
-    <row r="213" spans="1:4" ht="21">
+    <row r="213" spans="1:6" ht="21">
       <c r="B213" s="7"/>
       <c r="C213" s="6"/>
       <c r="D213" s="3"/>
     </row>
-    <row r="214" spans="1:4" ht="21">
+    <row r="214" spans="1:6" ht="21">
       <c r="A214" s="13">
         <v>1</v>
       </c>
@@ -5145,11 +5169,14 @@
       <c r="C214" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D214" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="21">
+      <c r="D214" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F214" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="21">
       <c r="A215" s="13">
         <v>2</v>
       </c>
@@ -5159,11 +5186,17 @@
       <c r="C215" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D215" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="21">
+      <c r="D215" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F215" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="21">
       <c r="A216" s="13">
         <v>3</v>
       </c>
@@ -5173,11 +5206,14 @@
       <c r="C216" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D216" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="21">
+      <c r="D216" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F216" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="21">
       <c r="A217" s="13">
         <v>4</v>
       </c>
@@ -5187,11 +5223,17 @@
       <c r="C217" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D217" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="21">
+      <c r="D217" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F217" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="21">
       <c r="A218" s="13">
         <v>5</v>
       </c>
@@ -5201,11 +5243,17 @@
       <c r="C218" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D218" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="21">
+      <c r="D218" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="F218" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="21">
       <c r="A219" s="13">
         <v>6</v>
       </c>
@@ -5215,11 +5263,14 @@
       <c r="C219" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D219" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="21">
+      <c r="D219" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F219" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="21">
       <c r="A220" s="13">
         <v>7</v>
       </c>
@@ -5233,7 +5284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="21">
+    <row r="221" spans="1:6" ht="21">
       <c r="A221" s="13">
         <v>8</v>
       </c>
@@ -5247,7 +5298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="21">
+    <row r="222" spans="1:6" ht="21">
       <c r="A222" s="13">
         <v>9</v>
       </c>
@@ -5261,7 +5312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="21">
+    <row r="223" spans="1:6" ht="21">
       <c r="A223" s="13">
         <v>10</v>
       </c>
@@ -5275,7 +5326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="21">
+    <row r="224" spans="1:6" ht="21">
       <c r="A224" s="13">
         <v>11</v>
       </c>
@@ -5464,6 +5515,9 @@
       <c r="D238" s="11" t="s">
         <v>463</v>
       </c>
+      <c r="E238" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="F238" s="19">
         <v>1</v>
       </c>
@@ -5478,8 +5532,14 @@
       <c r="C239" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D239" s="3" t="s">
-        <v>3</v>
+      <c r="D239" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="F239" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="21">
@@ -5492,8 +5552,14 @@
       <c r="C240" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="D240" s="3" t="s">
-        <v>3</v>
+      <c r="D240" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F240" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="21">
@@ -5506,8 +5572,11 @@
       <c r="C241" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D241" s="3" t="s">
-        <v>3</v>
+      <c r="D241" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F241" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="21">
@@ -6020,7 +6089,7 @@
         <v>3</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>471</v>
+        <v>500</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="21">
@@ -6325,11 +6394,14 @@
       <c r="C300" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="D300" s="3" t="s">
-        <v>3</v>
+      <c r="D300" s="11" t="s">
+        <v>463</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>490</v>
+        <v>494</v>
+      </c>
+      <c r="F300" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="21">
@@ -7389,7 +7461,7 @@
         <v>463</v>
       </c>
       <c r="E373" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F373" s="19">
         <v>1</v>
@@ -7409,7 +7481,7 @@
         <v>463</v>
       </c>
       <c r="E374" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F374" s="19">
         <v>1</v>
@@ -7429,7 +7501,7 @@
         <v>463</v>
       </c>
       <c r="E375" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F375" s="19">
         <v>1</v>
@@ -7448,6 +7520,9 @@
       <c r="D376" s="11" t="s">
         <v>463</v>
       </c>
+      <c r="F376" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="377" spans="1:6" ht="21">
       <c r="A377" s="13">
@@ -7459,8 +7534,11 @@
       <c r="C377" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D377" s="3" t="s">
-        <v>3</v>
+      <c r="D377" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F377" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:6" ht="21">
@@ -7476,6 +7554,9 @@
       <c r="D378" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E378" s="3" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="379" spans="1:6" ht="21">
       <c r="A379" s="13">
@@ -7564,7 +7645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="21">
+    <row r="385" spans="1:6" ht="21">
       <c r="A385" s="13">
         <v>30</v>
       </c>
@@ -7574,11 +7655,14 @@
       <c r="C385" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="D385" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" ht="21">
+      <c r="D385" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F385" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" ht="21">
       <c r="A386" s="13">
         <v>31</v>
       </c>
@@ -7592,7 +7676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="21">
+    <row r="387" spans="1:6" ht="21">
       <c r="A387" s="13">
         <v>32</v>
       </c>
@@ -7606,7 +7690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="21">
+    <row r="388" spans="1:6" ht="21">
       <c r="A388" s="13">
         <v>33</v>
       </c>
@@ -7620,7 +7704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="21">
+    <row r="389" spans="1:6" ht="21">
       <c r="A389" s="13">
         <v>34</v>
       </c>
@@ -7634,7 +7718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="21">
+    <row r="390" spans="1:6" ht="21">
       <c r="A390" s="13">
         <v>35</v>
       </c>
@@ -7648,7 +7732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="21">
+    <row r="391" spans="1:6" ht="21">
       <c r="A391" s="13">
         <v>36</v>
       </c>
@@ -7662,7 +7746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="21">
+    <row r="392" spans="1:6" ht="21">
       <c r="A392" s="13">
         <v>37</v>
       </c>
@@ -7676,7 +7760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="21">
+    <row r="393" spans="1:6" ht="21">
       <c r="A393" s="13">
         <v>38</v>
       </c>
@@ -7690,7 +7774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="21">
+    <row r="394" spans="1:6" ht="21">
       <c r="A394" s="13">
         <v>39</v>
       </c>
@@ -7704,7 +7788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="21">
+    <row r="395" spans="1:6" ht="21">
       <c r="A395" s="13">
         <v>40</v>
       </c>
@@ -7718,7 +7802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="21">
+    <row r="396" spans="1:6" ht="21">
       <c r="A396" s="13">
         <v>41</v>
       </c>
@@ -7732,7 +7816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="21">
+    <row r="397" spans="1:6" ht="21">
       <c r="A397" s="13">
         <v>42</v>
       </c>
@@ -7746,7 +7830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="21">
+    <row r="398" spans="1:6" ht="21">
       <c r="A398" s="13">
         <v>43</v>
       </c>
@@ -7760,7 +7844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="21">
+    <row r="399" spans="1:6" ht="21">
       <c r="A399" s="13">
         <v>44</v>
       </c>
@@ -7774,7 +7858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="21">
+    <row r="400" spans="1:6" ht="21">
       <c r="C400" s="6"/>
       <c r="D400" s="3"/>
     </row>
@@ -8786,6 +8870,9 @@
       </c>
       <c r="D475" s="11" t="s">
         <v>463</v>
+      </c>
+      <c r="E475" s="3" t="s">
+        <v>497</v>
       </c>
       <c r="F475" s="19">
         <v>1</v>

--- a/List of questions.xlsx
+++ b/List of questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\BTech\semester4\450 dsa questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE720E4-33FA-4E03-A0B3-8BB77D05204D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE0123F-201A-4C05-ADA0-6B6E6534BC59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="520">
   <si>
     <t>Topic:</t>
   </si>
@@ -1573,6 +1573,18 @@
   </si>
   <si>
     <t>2q</t>
+  </si>
+  <si>
+    <t>revisit dp approach</t>
+  </si>
+  <si>
+    <t>revisit O(n) approaches</t>
+  </si>
+  <si>
+    <t>gap method and O(n) method are good, revisit</t>
+  </si>
+  <si>
+    <t>just read it, did not implemented, so revisit</t>
   </si>
 </sst>
 </file>
@@ -2108,8 +2120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2137,7 +2149,7 @@
       </c>
       <c r="E2" s="7">
         <f>SUM(F6:F481)</f>
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29.4">
@@ -2146,11 +2158,11 @@
       </c>
       <c r="E3" s="7">
         <f>2*E2/9</f>
-        <v>39.777777777777779</v>
+        <v>42.444444444444443</v>
       </c>
       <c r="F3" s="4">
         <f>COUNT(F6:F481)</f>
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21">
@@ -2336,11 +2348,14 @@
       <c r="C14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>3</v>
+      <c r="D14" s="16" t="s">
+        <v>463</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>513</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21">
@@ -2376,6 +2391,9 @@
       <c r="D16" s="16" t="s">
         <v>463</v>
       </c>
+      <c r="E16" s="3" t="s">
+        <v>517</v>
+      </c>
       <c r="F16" s="4">
         <v>1</v>
       </c>
@@ -2392,6 +2410,9 @@
       </c>
       <c r="D17" s="16" t="s">
         <v>463</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>518</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -2952,8 +2973,14 @@
       <c r="C51" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="18" t="s">
-        <v>3</v>
+      <c r="D51" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="21">
@@ -2966,8 +2993,11 @@
       <c r="C52" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="18" t="s">
-        <v>3</v>
+      <c r="D52" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="21">
@@ -2980,8 +3010,11 @@
       <c r="C53" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="18" t="s">
-        <v>3</v>
+      <c r="D53" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="21">
@@ -3121,6 +3154,9 @@
       <c r="D63" s="17" t="s">
         <v>463</v>
       </c>
+      <c r="E63" s="3" t="s">
+        <v>516</v>
+      </c>
       <c r="F63" s="4">
         <v>1</v>
       </c>
@@ -3142,7 +3178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="21">
+    <row r="65" spans="1:6" ht="21">
       <c r="A65" s="10">
         <v>10</v>
       </c>
@@ -3152,11 +3188,14 @@
       <c r="C65" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D65" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="21">
+      <c r="D65" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="21">
       <c r="A66" s="10">
         <v>11</v>
       </c>
@@ -3166,11 +3205,14 @@
       <c r="C66" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D66" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="21">
+      <c r="D66" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="21">
       <c r="A67" s="10">
         <v>12</v>
       </c>
@@ -3180,11 +3222,14 @@
       <c r="C67" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D67" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="21">
+      <c r="D67" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="21">
       <c r="A68" s="10">
         <v>13</v>
       </c>
@@ -3198,7 +3243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="21">
+    <row r="69" spans="1:6" ht="21">
       <c r="A69" s="10">
         <v>14</v>
       </c>
@@ -3212,7 +3257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="21">
+    <row r="70" spans="1:6" ht="21">
       <c r="A70" s="10">
         <v>15</v>
       </c>
@@ -3226,7 +3271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="21">
+    <row r="71" spans="1:6" ht="21">
       <c r="A71" s="10">
         <v>16</v>
       </c>
@@ -3240,7 +3285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="21">
+    <row r="72" spans="1:6" ht="21">
       <c r="A72" s="10">
         <v>17</v>
       </c>
@@ -3254,7 +3299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="21">
+    <row r="73" spans="1:6" ht="21">
       <c r="A73" s="10">
         <v>18</v>
       </c>
@@ -3268,7 +3313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="21">
+    <row r="74" spans="1:6" ht="21">
       <c r="A74" s="10">
         <v>19</v>
       </c>
@@ -3282,7 +3327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="21">
+    <row r="75" spans="1:6" ht="21">
       <c r="A75" s="10">
         <v>20</v>
       </c>
@@ -3296,7 +3341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="21">
+    <row r="76" spans="1:6" ht="21">
       <c r="A76" s="10">
         <v>21</v>
       </c>
@@ -3310,7 +3355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="21">
+    <row r="77" spans="1:6" ht="21">
       <c r="A77" s="10">
         <v>22</v>
       </c>
@@ -3324,7 +3369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="21">
+    <row r="78" spans="1:6" ht="21">
       <c r="A78" s="10">
         <v>23</v>
       </c>
@@ -3338,7 +3383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="21">
+    <row r="79" spans="1:6" ht="21">
       <c r="A79" s="10">
         <v>24</v>
       </c>
@@ -3352,7 +3397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="21">
+    <row r="80" spans="1:6" ht="21">
       <c r="A80" s="10">
         <v>25</v>
       </c>
@@ -7198,8 +7243,11 @@
       <c r="C342" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="D342" s="18" t="s">
-        <v>3</v>
+      <c r="D342" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F342" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:6" ht="21">
@@ -7212,8 +7260,11 @@
       <c r="C343" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="D343" s="18" t="s">
-        <v>3</v>
+      <c r="D343" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F343" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="21">
@@ -7226,8 +7277,11 @@
       <c r="C344" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="D344" s="18" t="s">
-        <v>3</v>
+      <c r="D344" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F344" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="21">
@@ -9235,8 +9289,14 @@
       <c r="C479" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="D479" s="18" t="s">
-        <v>3</v>
+      <c r="D479" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="E479" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="F479" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:6" ht="21">
@@ -9249,8 +9309,14 @@
       <c r="C480" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="D480" s="18" t="s">
-        <v>3</v>
+      <c r="D480" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="E480" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="F480" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:6" ht="21">

--- a/List of questions.xlsx
+++ b/List of questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\BTech\semester4\450 dsa questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE0123F-201A-4C05-ADA0-6B6E6534BC59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F712ED-4466-404A-A875-98879E8BE573}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="521">
   <si>
     <t>Topic:</t>
   </si>
@@ -1585,6 +1585,9 @@
   </si>
   <si>
     <t>just read it, did not implemented, so revisit</t>
+  </si>
+  <si>
+    <t>good, took lot of time to solve</t>
   </si>
 </sst>
 </file>
@@ -2120,15 +2123,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="11.19921875" style="1"/>
     <col min="2" max="2" width="34.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="116.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="118.19921875" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53.09765625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.19921875" style="4"/>
@@ -2149,7 +2152,7 @@
       </c>
       <c r="E2" s="7">
         <f>SUM(F6:F481)</f>
-        <v>191</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29.4">
@@ -2158,11 +2161,11 @@
       </c>
       <c r="E3" s="7">
         <f>2*E2/9</f>
-        <v>42.444444444444443</v>
+        <v>47.777777777777779</v>
       </c>
       <c r="F3" s="4">
         <f>COUNT(F6:F481)</f>
-        <v>191</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21">
@@ -3253,8 +3256,11 @@
       <c r="C69" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D69" s="18" t="s">
-        <v>3</v>
+      <c r="D69" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="21">
@@ -3267,8 +3273,11 @@
       <c r="C70" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D70" s="18" t="s">
-        <v>3</v>
+      <c r="D70" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="21">
@@ -3860,8 +3869,11 @@
       <c r="C111" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D111" s="18" t="s">
-        <v>3</v>
+      <c r="D111" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F111" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="21">
@@ -3874,8 +3886,11 @@
       <c r="C112" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D112" s="18" t="s">
-        <v>3</v>
+      <c r="D112" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F112" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="21">
@@ -3888,8 +3903,14 @@
       <c r="C113" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D113" s="18" t="s">
-        <v>3</v>
+      <c r="D113" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="F113" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="21">
@@ -4402,8 +4423,11 @@
       <c r="C148" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D148" s="18" t="s">
-        <v>3</v>
+      <c r="D148" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F148" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="21">
@@ -4416,8 +4440,11 @@
       <c r="C149" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D149" s="18" t="s">
-        <v>3</v>
+      <c r="D149" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F149" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="21">
@@ -4430,8 +4457,11 @@
       <c r="C150" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D150" s="18" t="s">
-        <v>3</v>
+      <c r="D150" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F150" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="21">
@@ -4444,8 +4474,11 @@
       <c r="C151" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D151" s="18" t="s">
-        <v>3</v>
+      <c r="D151" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F151" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="21">
@@ -4472,8 +4505,11 @@
       <c r="C153" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="D153" s="18" t="s">
-        <v>3</v>
+      <c r="D153" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F153" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="21">
@@ -5528,8 +5564,11 @@
       <c r="C223" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="D223" s="18" t="s">
-        <v>3</v>
+      <c r="D223" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F223" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="21">
@@ -5542,8 +5581,11 @@
       <c r="C224" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="D224" s="18" t="s">
-        <v>3</v>
+      <c r="D224" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F224" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="21">
@@ -5556,8 +5598,11 @@
       <c r="C225" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="D225" s="18" t="s">
-        <v>3</v>
+      <c r="D225" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F225" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="21">
@@ -5880,8 +5925,11 @@
       <c r="C247" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="D247" s="18" t="s">
-        <v>3</v>
+      <c r="D247" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F247" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="21">
@@ -5908,8 +5956,11 @@
       <c r="C249" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="D249" s="18" t="s">
-        <v>3</v>
+      <c r="D249" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F249" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="21">
@@ -6411,8 +6462,11 @@
       <c r="C284" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="D284" s="18" t="s">
-        <v>3</v>
+      <c r="D284" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F284" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="21">
@@ -6425,8 +6479,11 @@
       <c r="C285" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="D285" s="18" t="s">
-        <v>3</v>
+      <c r="D285" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F285" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="21">
@@ -6439,8 +6496,11 @@
       <c r="C286" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="D286" s="18" t="s">
-        <v>3</v>
+      <c r="D286" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F286" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="21">
@@ -6738,8 +6798,11 @@
       <c r="C306" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="D306" s="18" t="s">
-        <v>3</v>
+      <c r="D306" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F306" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="21">
@@ -6752,8 +6815,11 @@
       <c r="C307" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="D307" s="18" t="s">
-        <v>3</v>
+      <c r="D307" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F307" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="21">
@@ -7294,8 +7360,11 @@
       <c r="C345" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="D345" s="18" t="s">
-        <v>3</v>
+      <c r="D345" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F345" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="21">
@@ -7308,8 +7377,11 @@
       <c r="C346" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="D346" s="18" t="s">
-        <v>3</v>
+      <c r="D346" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F346" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="21">
@@ -7322,8 +7394,11 @@
       <c r="C347" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D347" s="18" t="s">
-        <v>3</v>
+      <c r="D347" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F347" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="21">
@@ -8196,8 +8271,11 @@
       <c r="C405" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D405" s="18" t="s">
-        <v>3</v>
+      <c r="D405" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F405" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:6" ht="21">

--- a/List of questions.xlsx
+++ b/List of questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\BTech\semester4\450 dsa questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F712ED-4466-404A-A875-98879E8BE573}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B656BA91-4D47-4B29-A7EE-BA9626F58749}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="529">
   <si>
     <t>Topic:</t>
   </si>
@@ -1588,6 +1588,30 @@
   </si>
   <si>
     <t>good, took lot of time to solve</t>
+  </si>
+  <si>
+    <t>good, could not think myself</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stuck for days, hint taken: mergesort, then solved in minutes </t>
+  </si>
+  <si>
+    <t>very important</t>
+  </si>
+  <si>
+    <t>do visit gfg editorial</t>
+  </si>
+  <si>
+    <t>V Impo, good and useful</t>
+  </si>
+  <si>
+    <t>important and standard ques</t>
+  </si>
+  <si>
+    <t>good, revisit</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
 </sst>
 </file>
@@ -2123,8 +2147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="70" workbookViewId="0">
+      <selection activeCell="C227" sqref="C227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2133,7 +2157,7 @@
     <col min="2" max="2" width="34.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="118.19921875" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.296875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.19921875" style="4"/>
     <col min="7" max="7" width="11.19921875" style="1"/>
     <col min="8" max="8" width="54.69921875" style="1" bestFit="1" customWidth="1"/>
@@ -2152,7 +2176,7 @@
       </c>
       <c r="E2" s="7">
         <f>SUM(F6:F481)</f>
-        <v>215</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29.4">
@@ -2161,11 +2185,11 @@
       </c>
       <c r="E3" s="7">
         <f>2*E2/9</f>
-        <v>47.777777777777779</v>
+        <v>58</v>
       </c>
       <c r="F3" s="4">
         <f>COUNT(F6:F481)</f>
-        <v>215</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21">
@@ -2485,11 +2509,14 @@
       <c r="C21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>3</v>
+      <c r="D21" s="16" t="s">
+        <v>463</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>471</v>
+        <v>522</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21">
@@ -3290,8 +3317,11 @@
       <c r="C71" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D71" s="18" t="s">
-        <v>3</v>
+      <c r="D71" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="21">
@@ -3304,8 +3334,14 @@
       <c r="C72" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D72" s="18" t="s">
-        <v>3</v>
+      <c r="D72" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="21">
@@ -3321,6 +3357,9 @@
       <c r="D73" s="18" t="s">
         <v>3</v>
       </c>
+      <c r="E73" s="3" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="74" spans="1:6" ht="21">
       <c r="A74" s="10">
@@ -3346,8 +3385,11 @@
       <c r="C75" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D75" s="18" t="s">
-        <v>3</v>
+      <c r="D75" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="21">
@@ -3360,8 +3402,11 @@
       <c r="C76" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D76" s="18" t="s">
-        <v>3</v>
+      <c r="D76" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F76" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="21">
@@ -4030,8 +4075,11 @@
       <c r="C121" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D121" s="18" t="s">
-        <v>3</v>
+      <c r="D121" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F121" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="21">
@@ -4491,8 +4539,11 @@
       <c r="C152" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D152" s="18" t="s">
-        <v>3</v>
+      <c r="D152" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F152" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="21">
@@ -4522,8 +4573,11 @@
       <c r="C154" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D154" s="18" t="s">
-        <v>3</v>
+      <c r="D154" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F154" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="21">
@@ -4536,8 +4590,14 @@
       <c r="C155" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D155" s="18" t="s">
-        <v>3</v>
+      <c r="D155" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="F155" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="21">
@@ -4550,8 +4610,14 @@
       <c r="C156" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="D156" s="18" t="s">
-        <v>3</v>
+      <c r="D156" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="F156" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="21">
@@ -4564,8 +4630,11 @@
       <c r="C157" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="D157" s="18" t="s">
-        <v>3</v>
+      <c r="D157" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F157" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="21">
@@ -4578,8 +4647,11 @@
       <c r="C158" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D158" s="18" t="s">
-        <v>3</v>
+      <c r="D158" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F158" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="21">
@@ -4592,8 +4664,11 @@
       <c r="C159" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="D159" s="18" t="s">
-        <v>3</v>
+      <c r="D159" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F159" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="21">
@@ -5615,8 +5690,11 @@
       <c r="C226" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="D226" s="18" t="s">
-        <v>3</v>
+      <c r="D226" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F226" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="21">
@@ -5894,6 +5972,9 @@
       <c r="D245" s="16" t="s">
         <v>463</v>
       </c>
+      <c r="E245" s="3" t="s">
+        <v>490</v>
+      </c>
       <c r="F245" s="4">
         <v>1</v>
       </c>
@@ -5942,8 +6023,14 @@
       <c r="C248" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="D248" s="18" t="s">
-        <v>3</v>
+      <c r="D248" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="F248" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="21">
@@ -5959,6 +6046,9 @@
       <c r="D249" s="16" t="s">
         <v>463</v>
       </c>
+      <c r="E249" s="3" t="s">
+        <v>503</v>
+      </c>
       <c r="F249" s="4">
         <v>1</v>
       </c>
@@ -5973,8 +6063,11 @@
       <c r="C250" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D250" s="18" t="s">
-        <v>3</v>
+      <c r="D250" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F250" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="21">
@@ -5987,8 +6080,11 @@
       <c r="C251" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="D251" s="18" t="s">
-        <v>3</v>
+      <c r="D251" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F251" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="21">
@@ -6001,8 +6097,11 @@
       <c r="C252" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="D252" s="18" t="s">
-        <v>3</v>
+      <c r="D252" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F252" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="21">
@@ -6015,8 +6114,11 @@
       <c r="C253" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D253" s="18" t="s">
-        <v>3</v>
+      <c r="D253" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F253" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="21">
@@ -6029,8 +6131,11 @@
       <c r="C254" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="D254" s="18" t="s">
-        <v>3</v>
+      <c r="D254" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F254" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="21">
@@ -6043,8 +6148,11 @@
       <c r="C255" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="D255" s="18" t="s">
-        <v>3</v>
+      <c r="D255" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F255" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="21">
@@ -6057,11 +6165,14 @@
       <c r="C256" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="D256" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" ht="21">
+      <c r="D256" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F256" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="21">
       <c r="A257" s="10">
         <v>20</v>
       </c>
@@ -6071,11 +6182,14 @@
       <c r="C257" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="D257" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" ht="21">
+      <c r="D257" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F257" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="21">
       <c r="A258" s="10">
         <v>21</v>
       </c>
@@ -6085,11 +6199,14 @@
       <c r="C258" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="D258" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" ht="21">
+      <c r="D258" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F258" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="21">
       <c r="A259" s="10">
         <v>22</v>
       </c>
@@ -6103,7 +6220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="21">
+    <row r="260" spans="1:6" ht="21">
       <c r="A260" s="10">
         <v>23</v>
       </c>
@@ -6117,7 +6234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="21">
+    <row r="261" spans="1:6" ht="21">
       <c r="A261" s="10">
         <v>24</v>
       </c>
@@ -6131,7 +6248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="21">
+    <row r="262" spans="1:6" ht="21">
       <c r="A262" s="10">
         <v>25</v>
       </c>
@@ -6145,7 +6262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="21">
+    <row r="263" spans="1:6" ht="21">
       <c r="A263" s="10">
         <v>26</v>
       </c>
@@ -6159,7 +6276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="21">
+    <row r="264" spans="1:6" ht="21">
       <c r="A264" s="10">
         <v>27</v>
       </c>
@@ -6173,7 +6290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="21">
+    <row r="265" spans="1:6" ht="21">
       <c r="A265" s="10">
         <v>28</v>
       </c>
@@ -6187,7 +6304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="21">
+    <row r="266" spans="1:6" ht="21">
       <c r="A266" s="10">
         <v>29</v>
       </c>
@@ -6201,7 +6318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="21">
+    <row r="267" spans="1:6" ht="21">
       <c r="A267" s="10">
         <v>30</v>
       </c>
@@ -6215,7 +6332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="21">
+    <row r="268" spans="1:6" ht="21">
       <c r="A268" s="10">
         <v>31</v>
       </c>
@@ -6229,7 +6346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="21">
+    <row r="269" spans="1:6" ht="21">
       <c r="A269" s="10">
         <v>32</v>
       </c>
@@ -6243,7 +6360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="21">
+    <row r="270" spans="1:6" ht="21">
       <c r="A270" s="10">
         <v>33</v>
       </c>
@@ -6257,7 +6374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="21">
+    <row r="271" spans="1:6" ht="21">
       <c r="A271" s="10">
         <v>34</v>
       </c>
@@ -6271,7 +6388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="21">
+    <row r="272" spans="1:6" ht="21">
       <c r="A272" s="10">
         <v>35</v>
       </c>
@@ -6513,8 +6630,11 @@
       <c r="C287" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="D287" s="18" t="s">
-        <v>3</v>
+      <c r="D287" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F287" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="21">
@@ -6530,6 +6650,12 @@
       <c r="D288" s="16" t="s">
         <v>463</v>
       </c>
+      <c r="E288" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="F288" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="289" spans="1:6" ht="21">
       <c r="A289" s="10">
@@ -6541,8 +6667,14 @@
       <c r="C289" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="D289" s="18" t="s">
-        <v>3</v>
+      <c r="D289" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F289" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="21">
@@ -6555,8 +6687,11 @@
       <c r="C290" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="D290" s="18" t="s">
-        <v>3</v>
+      <c r="D290" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F290" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="21">
@@ -6569,8 +6704,11 @@
       <c r="C291" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="D291" s="18" t="s">
-        <v>3</v>
+      <c r="D291" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F291" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="21">
@@ -6583,8 +6721,14 @@
       <c r="C292" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="D292" s="18" t="s">
-        <v>3</v>
+      <c r="D292" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="F292" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="21">
@@ -6597,8 +6741,11 @@
       <c r="C293" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="D293" s="18" t="s">
-        <v>3</v>
+      <c r="D293" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F293" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="21">
@@ -6832,8 +6979,11 @@
       <c r="C308" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="D308" s="18" t="s">
-        <v>3</v>
+      <c r="D308" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F308" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="21">
@@ -6846,8 +6996,14 @@
       <c r="C309" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="D309" s="18" t="s">
-        <v>3</v>
+      <c r="D309" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="F309" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="21">
@@ -6860,8 +7016,11 @@
       <c r="C310" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="D310" s="18" t="s">
-        <v>3</v>
+      <c r="D310" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F310" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="21">
@@ -6874,8 +7033,14 @@
       <c r="C311" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="D311" s="18" t="s">
-        <v>3</v>
+      <c r="D311" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F311" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="21">
@@ -6888,8 +7053,14 @@
       <c r="C312" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="D312" s="18" t="s">
-        <v>3</v>
+      <c r="D312" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="F312" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="21">
@@ -6902,8 +7073,14 @@
       <c r="C313" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="D313" s="18" t="s">
-        <v>3</v>
+      <c r="D313" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="F313" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="21">
@@ -6916,8 +7093,14 @@
       <c r="C314" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="D314" s="18" t="s">
-        <v>3</v>
+      <c r="D314" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="F314" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="21">
@@ -6930,8 +7113,11 @@
       <c r="C315" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="D315" s="18" t="s">
-        <v>3</v>
+      <c r="D315" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F315" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="21">
@@ -6944,8 +7130,11 @@
       <c r="C316" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="D316" s="18" t="s">
-        <v>3</v>
+      <c r="D316" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F316" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="21">
@@ -7411,8 +7600,11 @@
       <c r="C348" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="D348" s="18" t="s">
-        <v>3</v>
+      <c r="D348" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F348" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:6" ht="21">
@@ -7425,8 +7617,11 @@
       <c r="C349" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="D349" s="18" t="s">
-        <v>3</v>
+      <c r="D349" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F349" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:6" ht="21">
@@ -7439,8 +7634,11 @@
       <c r="C350" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D350" s="18" t="s">
-        <v>3</v>
+      <c r="D350" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F350" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:6" ht="21">
@@ -7453,8 +7651,11 @@
       <c r="C351" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D351" s="18" t="s">
-        <v>3</v>
+      <c r="D351" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F351" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="21">
@@ -7467,8 +7668,11 @@
       <c r="C352" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="D352" s="18" t="s">
-        <v>3</v>
+      <c r="D352" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F352" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:6" ht="21">
@@ -7481,8 +7685,11 @@
       <c r="C353" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="D353" s="18" t="s">
-        <v>3</v>
+      <c r="D353" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F353" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:6" ht="21">
@@ -7863,6 +8070,9 @@
       </c>
       <c r="D376" s="16" t="s">
         <v>463</v>
+      </c>
+      <c r="E376" s="3" t="s">
+        <v>490</v>
       </c>
       <c r="F376" s="4">
         <v>1</v>

--- a/List of questions.xlsx
+++ b/List of questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\BTech\semester4\450 dsa questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B656BA91-4D47-4B29-A7EE-BA9626F58749}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86F751E-2B3B-4D73-878A-5F8C64BF09FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="538">
   <si>
     <t>Topic:</t>
   </si>
@@ -1542,9 +1542,6 @@
     <t>Great ques!! Must revisit gfg editorial</t>
   </si>
   <si>
-    <t>good, did a mistake</t>
-  </si>
-  <si>
     <t>good ques</t>
   </si>
   <si>
@@ -1612,6 +1609,36 @@
   </si>
   <si>
     <t>nice</t>
+  </si>
+  <si>
+    <t>revisit dp solutions</t>
+  </si>
+  <si>
+    <t>tricky</t>
+  </si>
+  <si>
+    <t>could not understand dp approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCM, revisit O(n^2) approach </t>
+  </si>
+  <si>
+    <t>revisit efficient approach</t>
+  </si>
+  <si>
+    <t>efficient approach is good</t>
+  </si>
+  <si>
+    <t>important good ques</t>
+  </si>
+  <si>
+    <t>revise</t>
+  </si>
+  <si>
+    <t>MCM type, revisit bottom up approach</t>
+  </si>
+  <si>
+    <t>my first intution is wrong</t>
   </si>
 </sst>
 </file>
@@ -2147,8 +2174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="70" workbookViewId="0">
-      <selection activeCell="C227" sqref="C227"/>
+    <sheetView tabSelected="1" topLeftCell="B115" zoomScale="70" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2176,7 +2203,7 @@
       </c>
       <c r="E2" s="7">
         <f>SUM(F6:F481)</f>
-        <v>261</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29.4">
@@ -2185,11 +2212,11 @@
       </c>
       <c r="E3" s="7">
         <f>2*E2/9</f>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F3" s="4">
         <f>COUNT(F6:F481)</f>
-        <v>261</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21">
@@ -2379,7 +2406,7 @@
         <v>463</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -2419,7 +2446,7 @@
         <v>463</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -2439,7 +2466,7 @@
         <v>463</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -2513,7 +2540,7 @@
         <v>463</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
@@ -2771,7 +2798,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
@@ -2919,7 +2946,7 @@
         <v>463</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F46" s="4">
         <v>1</v>
@@ -3007,7 +3034,7 @@
         <v>463</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
@@ -3185,7 +3212,7 @@
         <v>463</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F63" s="4">
         <v>1</v>
@@ -3338,7 +3365,7 @@
         <v>463</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F72" s="4">
         <v>1</v>
@@ -3358,7 +3385,7 @@
         <v>3</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="21">
@@ -3824,7 +3851,7 @@
         <v>463</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F106" s="4">
         <v>1</v>
@@ -3952,7 +3979,7 @@
         <v>463</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -4005,8 +4032,11 @@
       <c r="C116" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D116" s="18" t="s">
-        <v>3</v>
+      <c r="D116" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F116" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="21">
@@ -4047,8 +4077,11 @@
       <c r="C119" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D119" s="18" t="s">
-        <v>3</v>
+      <c r="D119" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F119" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="21">
@@ -4310,7 +4343,7 @@
         <v>463</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F139" s="4">
         <v>1</v>
@@ -4330,7 +4363,7 @@
         <v>463</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F140" s="4">
         <v>1</v>
@@ -4350,7 +4383,7 @@
         <v>463</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F141" s="4">
         <v>1</v>
@@ -4370,7 +4403,7 @@
         <v>463</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F142" s="4">
         <v>1</v>
@@ -4614,7 +4647,7 @@
         <v>463</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F156" s="4">
         <v>1</v>
@@ -4681,11 +4714,14 @@
       <c r="C160" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D160" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="21">
+      <c r="D160" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F160" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="21">
       <c r="A161" s="10">
         <v>23</v>
       </c>
@@ -4695,11 +4731,17 @@
       <c r="C161" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D161" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="21">
+      <c r="D161" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="F161" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="21">
       <c r="A162" s="10">
         <v>24</v>
       </c>
@@ -4709,11 +4751,14 @@
       <c r="C162" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D162" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="21">
+      <c r="D162" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F162" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="21">
       <c r="A163" s="10">
         <v>25</v>
       </c>
@@ -4727,7 +4772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="21">
+    <row r="164" spans="1:6" ht="21">
       <c r="A164" s="10">
         <v>26</v>
       </c>
@@ -4737,11 +4782,14 @@
       <c r="C164" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="D164" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="21">
+      <c r="D164" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F164" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="21">
       <c r="A165" s="10">
         <v>27</v>
       </c>
@@ -4755,7 +4803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="21">
+    <row r="166" spans="1:6" ht="21">
       <c r="A166" s="10">
         <v>28</v>
       </c>
@@ -4769,7 +4817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="21">
+    <row r="167" spans="1:6" ht="21">
       <c r="A167" s="10">
         <v>29</v>
       </c>
@@ -4783,7 +4831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="21">
+    <row r="168" spans="1:6" ht="21">
       <c r="A168" s="10">
         <v>30</v>
       </c>
@@ -4797,7 +4845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="21">
+    <row r="169" spans="1:6" ht="21">
       <c r="A169" s="10">
         <v>31</v>
       </c>
@@ -4811,7 +4859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="21">
+    <row r="170" spans="1:6" ht="21">
       <c r="A170" s="10">
         <v>32</v>
       </c>
@@ -4825,7 +4873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="21">
+    <row r="171" spans="1:6" ht="21">
       <c r="A171" s="10">
         <v>33</v>
       </c>
@@ -4839,7 +4887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="21">
+    <row r="172" spans="1:6" ht="21">
       <c r="A172" s="10">
         <v>34</v>
       </c>
@@ -4853,7 +4901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="21">
+    <row r="173" spans="1:6" ht="21">
       <c r="A173" s="10">
         <v>35</v>
       </c>
@@ -4867,7 +4915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="21">
+    <row r="174" spans="1:6" ht="21">
       <c r="A174" s="10">
         <v>36</v>
       </c>
@@ -4881,7 +4929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="21">
+    <row r="176" spans="1:6" ht="21">
       <c r="C176" s="14"/>
       <c r="D176" s="3"/>
     </row>
@@ -5791,8 +5839,11 @@
       <c r="C233" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="D233" s="18" t="s">
-        <v>3</v>
+      <c r="D233" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F233" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="21">
@@ -5805,8 +5856,14 @@
       <c r="C234" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="D234" s="18" t="s">
-        <v>3</v>
+      <c r="D234" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="F234" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="21">
@@ -6216,8 +6273,11 @@
       <c r="C259" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="D259" s="18" t="s">
-        <v>3</v>
+      <c r="D259" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F259" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="21">
@@ -6230,8 +6290,11 @@
       <c r="C260" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D260" s="18" t="s">
-        <v>3</v>
+      <c r="D260" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F260" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="21">
@@ -6244,8 +6307,11 @@
       <c r="C261" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="D261" s="18" t="s">
-        <v>3</v>
+      <c r="D261" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F261" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="21">
@@ -6258,8 +6324,11 @@
       <c r="C262" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="D262" s="18" t="s">
-        <v>3</v>
+      <c r="D262" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F262" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="21">
@@ -6475,7 +6544,7 @@
         <v>463</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F278" s="4">
         <v>1</v>
@@ -6546,7 +6615,7 @@
         <v>463</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F282" s="4">
         <v>1</v>
@@ -6651,7 +6720,7 @@
         <v>463</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F288" s="4">
         <v>1</v>
@@ -6671,7 +6740,7 @@
         <v>463</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F289" s="4">
         <v>1</v>
@@ -7000,7 +7069,7 @@
         <v>463</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F309" s="4">
         <v>1</v>
@@ -7037,7 +7106,7 @@
         <v>463</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F311" s="4">
         <v>1</v>
@@ -7057,7 +7126,7 @@
         <v>463</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F312" s="4">
         <v>1</v>
@@ -7077,7 +7146,7 @@
         <v>463</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F313" s="4">
         <v>1</v>
@@ -7147,8 +7216,11 @@
       <c r="C317" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="D317" s="18" t="s">
-        <v>3</v>
+      <c r="D317" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F317" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="21">
@@ -7161,8 +7233,11 @@
       <c r="C318" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="D318" s="18" t="s">
-        <v>3</v>
+      <c r="D318" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F318" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:6" ht="21">
@@ -7175,8 +7250,14 @@
       <c r="C319" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="D319" s="18" t="s">
-        <v>3</v>
+      <c r="D319" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="F319" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="21">
@@ -7189,8 +7270,11 @@
       <c r="C320" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="D320" s="18" t="s">
-        <v>3</v>
+      <c r="D320" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F320" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="21">
@@ -7203,8 +7287,14 @@
       <c r="C321" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="D321" s="18" t="s">
-        <v>3</v>
+      <c r="D321" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="F321" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="21">
@@ -7217,8 +7307,11 @@
       <c r="C322" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="D322" s="18" t="s">
-        <v>3</v>
+      <c r="D322" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F322" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="21">
@@ -7231,8 +7324,11 @@
       <c r="C323" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="D323" s="18" t="s">
-        <v>3</v>
+      <c r="D323" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F323" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="21">
@@ -7259,8 +7355,11 @@
       <c r="C325" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="D325" s="18" t="s">
-        <v>3</v>
+      <c r="D325" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F325" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="21">
@@ -7273,8 +7372,11 @@
       <c r="C326" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="D326" s="18" t="s">
-        <v>3</v>
+      <c r="D326" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F326" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="21">
@@ -7287,8 +7389,11 @@
       <c r="C327" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="D327" s="18" t="s">
-        <v>3</v>
+      <c r="D327" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F327" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="21">
@@ -8632,7 +8737,7 @@
         <v>463</v>
       </c>
       <c r="E415" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F415" s="4">
         <v>1</v>
@@ -8810,11 +8915,14 @@
       <c r="C425" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="D425" s="18" t="s">
-        <v>3</v>
+      <c r="D425" s="17" t="s">
+        <v>463</v>
       </c>
       <c r="E425" s="3" t="s">
         <v>504</v>
+      </c>
+      <c r="F425" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:6" ht="21">
@@ -8827,8 +8935,11 @@
       <c r="C426" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="D426" s="18" t="s">
-        <v>3</v>
+      <c r="D426" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F426" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:6" ht="21">
@@ -8841,8 +8952,14 @@
       <c r="C427" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="D427" s="18" t="s">
-        <v>3</v>
+      <c r="D427" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="E427" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="F427" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:6" ht="21">
@@ -8855,8 +8972,11 @@
       <c r="C428" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="D428" s="18" t="s">
-        <v>3</v>
+      <c r="D428" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F428" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:6" ht="21">
@@ -8869,11 +8989,14 @@
       <c r="C429" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="D429" s="18" t="s">
-        <v>3</v>
+      <c r="D429" s="17" t="s">
+        <v>463</v>
       </c>
       <c r="E429" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
+      </c>
+      <c r="F429" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:6" ht="21">
@@ -8918,7 +9041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="21">
+    <row r="433" spans="1:6" ht="21">
       <c r="A433" s="10">
         <v>24</v>
       </c>
@@ -8932,7 +9055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="21">
+    <row r="434" spans="1:6" ht="21">
       <c r="A434" s="10">
         <v>25</v>
       </c>
@@ -8946,7 +9069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="21">
+    <row r="435" spans="1:6" ht="21">
       <c r="A435" s="10">
         <v>26</v>
       </c>
@@ -8956,11 +9079,14 @@
       <c r="C435" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="D435" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" ht="21">
+      <c r="D435" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F435" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" ht="21">
       <c r="A436" s="10">
         <v>27</v>
       </c>
@@ -8970,11 +9096,14 @@
       <c r="C436" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="D436" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4" ht="21">
+      <c r="D436" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F436" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" ht="21">
       <c r="A437" s="10">
         <v>28</v>
       </c>
@@ -8984,11 +9113,17 @@
       <c r="C437" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="D437" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" ht="21">
+      <c r="D437" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="E437" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="F437" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" ht="21">
       <c r="A438" s="10">
         <v>29</v>
       </c>
@@ -8998,11 +9133,17 @@
       <c r="C438" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="D438" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4" ht="21">
+      <c r="D438" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="E438" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F438" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" ht="21">
       <c r="A439" s="10">
         <v>30</v>
       </c>
@@ -9012,11 +9153,14 @@
       <c r="C439" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="D439" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" ht="21">
+      <c r="D439" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F439" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" ht="21">
       <c r="A440" s="10">
         <v>31</v>
       </c>
@@ -9026,11 +9170,14 @@
       <c r="C440" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="D440" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4" ht="21">
+      <c r="D440" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F440" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" ht="21">
       <c r="A441" s="10">
         <v>32</v>
       </c>
@@ -9040,11 +9187,14 @@
       <c r="C441" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="D441" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" ht="21">
+      <c r="D441" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F441" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" ht="21">
       <c r="A442" s="10">
         <v>33</v>
       </c>
@@ -9054,11 +9204,17 @@
       <c r="C442" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="D442" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" ht="21">
+      <c r="D442" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="E442" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F442" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" ht="21">
       <c r="A443" s="10">
         <v>34</v>
       </c>
@@ -9068,11 +9224,14 @@
       <c r="C443" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="D443" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" ht="21">
+      <c r="D443" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F443" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" ht="21">
       <c r="A444" s="10">
         <v>35</v>
       </c>
@@ -9082,11 +9241,14 @@
       <c r="C444" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="D444" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" ht="21">
+      <c r="D444" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F444" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" ht="21">
       <c r="A445" s="10">
         <v>36</v>
       </c>
@@ -9100,7 +9262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="21">
+    <row r="446" spans="1:6" ht="21">
       <c r="A446" s="10">
         <v>37</v>
       </c>
@@ -9114,7 +9276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="21">
+    <row r="447" spans="1:6" ht="21">
       <c r="A447" s="10">
         <v>38</v>
       </c>
@@ -9128,7 +9290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="21">
+    <row r="448" spans="1:6" ht="21">
       <c r="A448" s="10">
         <v>39</v>
       </c>
@@ -9142,7 +9304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="21">
+    <row r="449" spans="1:6" ht="21">
       <c r="A449" s="10">
         <v>40</v>
       </c>
@@ -9156,7 +9318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="21">
+    <row r="450" spans="1:6" ht="21">
       <c r="A450" s="10">
         <v>41</v>
       </c>
@@ -9170,7 +9332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="21">
+    <row r="451" spans="1:6" ht="21">
       <c r="A451" s="10">
         <v>42</v>
       </c>
@@ -9184,7 +9346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="21">
+    <row r="452" spans="1:6" ht="21">
       <c r="A452" s="10">
         <v>43</v>
       </c>
@@ -9198,7 +9360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="21">
+    <row r="453" spans="1:6" ht="21">
       <c r="A453" s="10">
         <v>44</v>
       </c>
@@ -9212,7 +9374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="21">
+    <row r="454" spans="1:6" ht="21">
       <c r="A454" s="10">
         <v>45</v>
       </c>
@@ -9226,7 +9388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="21">
+    <row r="455" spans="1:6" ht="21">
       <c r="A455" s="10">
         <v>46</v>
       </c>
@@ -9240,7 +9402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="21">
+    <row r="456" spans="1:6" ht="21">
       <c r="A456" s="10">
         <v>47</v>
       </c>
@@ -9254,7 +9416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="21">
+    <row r="457" spans="1:6" ht="21">
       <c r="A457" s="10">
         <v>48</v>
       </c>
@@ -9268,7 +9430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="21">
+    <row r="458" spans="1:6" ht="21">
       <c r="A458" s="10">
         <v>49</v>
       </c>
@@ -9282,7 +9444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="21">
+    <row r="459" spans="1:6" ht="21">
       <c r="A459" s="10">
         <v>50</v>
       </c>
@@ -9296,7 +9458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="21">
+    <row r="460" spans="1:6" ht="21">
       <c r="A460" s="10">
         <v>51</v>
       </c>
@@ -9306,11 +9468,17 @@
       <c r="C460" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="D460" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4" ht="21">
+      <c r="D460" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="E460" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F460" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" ht="21">
       <c r="A461" s="10">
         <v>52</v>
       </c>
@@ -9324,7 +9492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="21">
+    <row r="462" spans="1:6" ht="21">
       <c r="A462" s="10">
         <v>53</v>
       </c>
@@ -9334,11 +9502,14 @@
       <c r="C462" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="D462" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4" ht="21">
+      <c r="D462" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F462" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" ht="21">
       <c r="A463" s="10">
         <v>54</v>
       </c>
@@ -9348,11 +9519,17 @@
       <c r="C463" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="D463" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4" ht="21">
+      <c r="D463" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="E463" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="F463" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" ht="21">
       <c r="A464" s="10">
         <v>55</v>
       </c>
@@ -9362,8 +9539,11 @@
       <c r="C464" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="D464" s="18" t="s">
-        <v>3</v>
+      <c r="D464" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F464" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:6" ht="21">
@@ -9376,8 +9556,14 @@
       <c r="C465" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="D465" s="18" t="s">
-        <v>3</v>
+      <c r="D465" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="E465" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="F465" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:6" ht="21">
@@ -9390,8 +9576,11 @@
       <c r="C466" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="D466" s="18" t="s">
-        <v>3</v>
+      <c r="D466" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F466" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:6" ht="21">
@@ -9418,8 +9607,11 @@
       <c r="C468" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="D468" s="18" t="s">
-        <v>3</v>
+      <c r="D468" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F468" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:6" ht="21">
@@ -9432,8 +9624,14 @@
       <c r="C469" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="D469" s="18" t="s">
-        <v>3</v>
+      <c r="D469" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="E469" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F469" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:6" ht="21">

--- a/List of questions.xlsx
+++ b/List of questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\BTech\semester4\450 dsa questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86F751E-2B3B-4D73-878A-5F8C64BF09FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266388F5-84E9-4AFD-AF23-990426D71A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="540">
   <si>
     <t>Topic:</t>
   </si>
@@ -1639,6 +1639,12 @@
   </si>
   <si>
     <t>my first intution is wrong</t>
+  </si>
+  <si>
+    <t>took hint</t>
+  </si>
+  <si>
+    <t>impo, good use of hashing</t>
   </si>
 </sst>
 </file>
@@ -2174,8 +2180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B115" zoomScale="70" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="70" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2203,7 +2209,7 @@
       </c>
       <c r="E2" s="7">
         <f>SUM(F6:F481)</f>
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29.4">
@@ -2212,11 +2218,11 @@
       </c>
       <c r="E3" s="7">
         <f>2*E2/9</f>
-        <v>68</v>
+        <v>69.111111111111114</v>
       </c>
       <c r="F3" s="4">
         <f>COUNT(F6:F481)</f>
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21">
@@ -5304,8 +5310,11 @@
       <c r="C197" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="D197" s="18" t="s">
-        <v>3</v>
+      <c r="D197" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F197" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="21">
@@ -5318,8 +5327,11 @@
       <c r="C198" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="D198" s="18" t="s">
-        <v>3</v>
+      <c r="D198" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F198" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="21">
@@ -5332,8 +5344,11 @@
       <c r="C199" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="D199" s="18" t="s">
-        <v>3</v>
+      <c r="D199" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F199" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="21">
@@ -5346,8 +5361,14 @@
       <c r="C200" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="D200" s="18" t="s">
-        <v>3</v>
+      <c r="D200" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="F200" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="21">
@@ -5360,8 +5381,14 @@
       <c r="C201" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="D201" s="18" t="s">
-        <v>3</v>
+      <c r="D201" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="F201" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="21">

--- a/List of questions.xlsx
+++ b/List of questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\BTech\semester4\450 dsa questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266388F5-84E9-4AFD-AF23-990426D71A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C77DAA6-86E5-4A1B-B2CA-5366CC8F5CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="548">
   <si>
     <t>Topic:</t>
   </si>
@@ -1446,9 +1446,6 @@
     <t>Important</t>
   </si>
   <si>
-    <t>Good/ Important</t>
-  </si>
-  <si>
     <t xml:space="preserve">tricky </t>
   </si>
   <si>
@@ -1645,6 +1642,33 @@
   </si>
   <si>
     <t>impo, good use of hashing</t>
+  </si>
+  <si>
+    <t>&lt;TO-DO&gt;</t>
+  </si>
+  <si>
+    <t>took hint of sorting by end time</t>
+  </si>
+  <si>
+    <t>couldn't get eff approach, MEET IN THE MIDDLE algorithm</t>
+  </si>
+  <si>
+    <t>Good, V. V. Important, must revise</t>
+  </si>
+  <si>
+    <t>good, idea to represent trees in strings</t>
+  </si>
+  <si>
+    <t>couldn't think of efficient approach</t>
+  </si>
+  <si>
+    <t>slight variation of kadane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revisit space optimized approach </t>
+  </si>
+  <si>
+    <t>MCM variant</t>
   </si>
 </sst>
 </file>
@@ -2178,10 +2202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:F481"/>
+  <dimension ref="A1:N481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="70" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200"/>
+    <sheetView tabSelected="1" topLeftCell="A447" zoomScale="70" workbookViewId="0">
+      <selection activeCell="C460" sqref="C460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2205,24 +2229,20 @@
     <row r="2" spans="1:6" ht="29.4">
       <c r="C2" s="5"/>
       <c r="D2" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E2" s="7">
         <f>SUM(F6:F481)</f>
-        <v>311</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29.4">
       <c r="D3" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E3" s="7">
         <f>2*E2/9</f>
-        <v>69.111111111111114</v>
-      </c>
-      <c r="F3" s="4">
-        <f>COUNT(F6:F481)</f>
-        <v>311</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21">
@@ -2242,7 +2262,7 @@
         <v>464</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2412,7 +2432,7 @@
         <v>463</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -2452,7 +2472,7 @@
         <v>463</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -2472,7 +2492,7 @@
         <v>463</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -2546,7 +2566,7 @@
         <v>463</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
@@ -2667,11 +2687,14 @@
       <c r="C28" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="18" t="s">
-        <v>3</v>
+      <c r="D28" s="16" t="s">
+        <v>463</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>473</v>
+        <v>542</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="21">
@@ -2804,7 +2827,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
@@ -2875,7 +2898,7 @@
         <v>3</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="21">
@@ -2892,7 +2915,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="21">
@@ -2952,7 +2975,7 @@
         <v>463</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F46" s="4">
         <v>1</v>
@@ -3040,7 +3063,7 @@
         <v>463</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
@@ -3218,7 +3241,7 @@
         <v>463</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F63" s="4">
         <v>1</v>
@@ -3371,7 +3394,7 @@
         <v>463</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F72" s="4">
         <v>1</v>
@@ -3391,7 +3414,7 @@
         <v>3</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="21">
@@ -3498,7 +3521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="21">
+    <row r="81" spans="1:6" ht="21">
       <c r="A81" s="10">
         <v>26</v>
       </c>
@@ -3512,7 +3535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="21">
+    <row r="82" spans="1:6" ht="21">
       <c r="A82" s="10">
         <v>27</v>
       </c>
@@ -3526,7 +3549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="21">
+    <row r="83" spans="1:6" ht="21">
       <c r="A83" s="10">
         <v>28</v>
       </c>
@@ -3540,7 +3563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="21">
+    <row r="84" spans="1:6" ht="21">
       <c r="A84" s="10">
         <v>29</v>
       </c>
@@ -3554,7 +3577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="21">
+    <row r="85" spans="1:6" ht="21">
       <c r="A85" s="10">
         <v>30</v>
       </c>
@@ -3568,7 +3591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="21">
+    <row r="86" spans="1:6" ht="21">
       <c r="A86" s="10">
         <v>31</v>
       </c>
@@ -3582,7 +3605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="21">
+    <row r="87" spans="1:6" ht="21">
       <c r="A87" s="10">
         <v>32</v>
       </c>
@@ -3596,7 +3619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="21">
+    <row r="88" spans="1:6" ht="21">
       <c r="A88" s="10">
         <v>33</v>
       </c>
@@ -3610,7 +3633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="21">
+    <row r="89" spans="1:6" ht="21">
       <c r="A89" s="10">
         <v>34</v>
       </c>
@@ -3624,7 +3647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="21">
+    <row r="90" spans="1:6" ht="21">
       <c r="A90" s="10">
         <v>35</v>
       </c>
@@ -3638,7 +3661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="21">
+    <row r="91" spans="1:6" ht="21">
       <c r="A91" s="10">
         <v>36</v>
       </c>
@@ -3652,7 +3675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="21">
+    <row r="92" spans="1:6" ht="21">
       <c r="A92" s="10">
         <v>37</v>
       </c>
@@ -3666,7 +3689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="21">
+    <row r="93" spans="1:6" ht="21">
       <c r="A93" s="10">
         <v>38</v>
       </c>
@@ -3680,7 +3703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="21">
+    <row r="94" spans="1:6" ht="21">
       <c r="A94" s="10">
         <v>39</v>
       </c>
@@ -3690,11 +3713,17 @@
       <c r="C94" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D94" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="21">
+      <c r="D94" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="F94" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="21">
       <c r="A95" s="10">
         <v>40</v>
       </c>
@@ -3704,11 +3733,14 @@
       <c r="C95" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D95" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="21">
+      <c r="D95" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F95" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="21">
       <c r="A96" s="10">
         <v>41</v>
       </c>
@@ -3857,7 +3889,7 @@
         <v>463</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F106" s="4">
         <v>1</v>
@@ -3894,7 +3926,7 @@
         <v>463</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F108" s="4">
         <v>1</v>
@@ -3985,7 +4017,7 @@
         <v>463</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -4005,7 +4037,7 @@
         <v>463</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F114" s="4">
         <v>1</v>
@@ -4204,6 +4236,9 @@
       <c r="D127" s="18" t="s">
         <v>3</v>
       </c>
+      <c r="E127" s="3" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="128" spans="1:6" ht="21">
       <c r="A128" s="10">
@@ -4215,8 +4250,11 @@
       <c r="C128" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D128" s="18" t="s">
-        <v>3</v>
+      <c r="D128" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F128" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="21">
@@ -4229,8 +4267,11 @@
       <c r="C129" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D129" s="18" t="s">
-        <v>3</v>
+      <c r="D129" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F129" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="21">
@@ -4243,8 +4284,11 @@
       <c r="C130" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D130" s="18" t="s">
-        <v>3</v>
+      <c r="D130" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F130" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="21">
@@ -4257,8 +4301,11 @@
       <c r="C131" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D131" s="18" t="s">
-        <v>3</v>
+      <c r="D131" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F131" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="21">
@@ -4271,8 +4318,11 @@
       <c r="C132" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D132" s="18" t="s">
-        <v>3</v>
+      <c r="D132" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F132" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="21">
@@ -4285,8 +4335,14 @@
       <c r="C133" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D133" s="18" t="s">
-        <v>3</v>
+      <c r="D133" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="F133" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="21">
@@ -4302,6 +4358,9 @@
       <c r="D134" s="18" t="s">
         <v>3</v>
       </c>
+      <c r="E134" s="3" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="135" spans="1:6" ht="21">
       <c r="A135" s="10">
@@ -4316,6 +4375,9 @@
       <c r="D135" s="18" t="s">
         <v>3</v>
       </c>
+      <c r="E135" s="3" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="136" spans="1:6" ht="21">
       <c r="A136" s="10">
@@ -4330,6 +4392,9 @@
       <c r="D136" s="18" t="s">
         <v>3</v>
       </c>
+      <c r="E136" s="3" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="138" spans="1:6" ht="21">
       <c r="C138" s="14"/>
@@ -4349,7 +4414,7 @@
         <v>463</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F139" s="4">
         <v>1</v>
@@ -4369,7 +4434,7 @@
         <v>463</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F140" s="4">
         <v>1</v>
@@ -4389,7 +4454,7 @@
         <v>463</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F141" s="4">
         <v>1</v>
@@ -4409,7 +4474,7 @@
         <v>463</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F142" s="4">
         <v>1</v>
@@ -4633,7 +4698,7 @@
         <v>463</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F155" s="4">
         <v>1</v>
@@ -4653,7 +4718,7 @@
         <v>463</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F156" s="4">
         <v>1</v>
@@ -4741,7 +4806,7 @@
         <v>463</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F161" s="4">
         <v>1</v>
@@ -5038,7 +5103,7 @@
         <v>463</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F182" s="4">
         <v>1</v>
@@ -5058,7 +5123,7 @@
         <v>463</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F183" s="4">
         <v>1</v>
@@ -5078,7 +5143,7 @@
         <v>463</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F184" s="4">
         <v>1</v>
@@ -5237,7 +5302,7 @@
         <v>463</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F193" s="4">
         <v>1</v>
@@ -5257,7 +5322,7 @@
         <v>463</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F194" s="4">
         <v>1</v>
@@ -5294,7 +5359,7 @@
         <v>463</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F196" s="4">
         <v>1</v>
@@ -5365,7 +5430,7 @@
         <v>463</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F200" s="4">
         <v>1</v>
@@ -5385,7 +5450,7 @@
         <v>463</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F201" s="4">
         <v>1</v>
@@ -5471,8 +5536,14 @@
       <c r="C207" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="D207" s="18" t="s">
-        <v>3</v>
+      <c r="D207" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="F207" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="21">
@@ -5485,8 +5556,11 @@
       <c r="C208" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D208" s="18" t="s">
-        <v>3</v>
+      <c r="D208" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F208" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="21">
@@ -5499,8 +5573,11 @@
       <c r="C209" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="D209" s="18" t="s">
-        <v>3</v>
+      <c r="D209" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F209" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="21">
@@ -5513,8 +5590,14 @@
       <c r="C210" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="D210" s="18" t="s">
-        <v>3</v>
+      <c r="D210" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="F210" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="21">
@@ -5527,8 +5610,11 @@
       <c r="C211" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="D211" s="18" t="s">
-        <v>3</v>
+      <c r="D211" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F211" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="21">
@@ -5573,7 +5659,7 @@
         <v>463</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F215" s="4">
         <v>1</v>
@@ -5610,7 +5696,7 @@
         <v>463</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F217" s="4">
         <v>1</v>
@@ -5630,7 +5716,7 @@
         <v>463</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F218" s="4">
         <v>1</v>
@@ -5887,7 +5973,7 @@
         <v>463</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F234" s="4">
         <v>1</v>
@@ -5929,7 +6015,7 @@
         <v>463</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F238" s="4">
         <v>1</v>
@@ -5949,7 +6035,7 @@
         <v>463</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F239" s="4">
         <v>1</v>
@@ -5969,7 +6055,7 @@
         <v>463</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F240" s="4">
         <v>1</v>
@@ -6057,7 +6143,7 @@
         <v>463</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F245" s="4">
         <v>1</v>
@@ -6111,7 +6197,7 @@
         <v>463</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F248" s="4">
         <v>1</v>
@@ -6131,7 +6217,7 @@
         <v>463</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F249" s="4">
         <v>1</v>
@@ -6571,7 +6657,7 @@
         <v>463</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F278" s="4">
         <v>1</v>
@@ -6642,7 +6728,7 @@
         <v>463</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F282" s="4">
         <v>1</v>
@@ -6747,7 +6833,7 @@
         <v>463</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F288" s="4">
         <v>1</v>
@@ -6767,7 +6853,7 @@
         <v>463</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F289" s="4">
         <v>1</v>
@@ -6821,7 +6907,7 @@
         <v>463</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F292" s="4">
         <v>1</v>
@@ -6917,7 +7003,7 @@
         <v>463</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F299" s="4">
         <v>1</v>
@@ -6937,7 +7023,7 @@
         <v>463</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F300" s="4">
         <v>1</v>
@@ -7025,7 +7111,7 @@
         <v>463</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F305" s="4">
         <v>1</v>
@@ -7096,7 +7182,7 @@
         <v>463</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F309" s="4">
         <v>1</v>
@@ -7133,7 +7219,7 @@
         <v>463</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F311" s="4">
         <v>1</v>
@@ -7153,7 +7239,7 @@
         <v>463</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F312" s="4">
         <v>1</v>
@@ -7173,7 +7259,7 @@
         <v>463</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F313" s="4">
         <v>1</v>
@@ -7193,7 +7279,7 @@
         <v>463</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F314" s="4">
         <v>1</v>
@@ -7281,7 +7367,7 @@
         <v>463</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F319" s="4">
         <v>1</v>
@@ -7318,7 +7404,7 @@
         <v>463</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F321" s="4">
         <v>1</v>
@@ -7597,7 +7683,7 @@
         <v>463</v>
       </c>
       <c r="E340" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F340" s="4">
         <v>1</v>
@@ -7948,7 +8034,7 @@
         <v>463</v>
       </c>
       <c r="E362" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F362" s="4">
         <v>1</v>
@@ -8019,7 +8105,7 @@
         <v>463</v>
       </c>
       <c r="E366" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F366" s="4">
         <v>1</v>
@@ -8039,7 +8125,7 @@
         <v>463</v>
       </c>
       <c r="E367" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F367" s="4">
         <v>1</v>
@@ -8144,7 +8230,7 @@
         <v>463</v>
       </c>
       <c r="E373" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F373" s="4">
         <v>1</v>
@@ -8164,7 +8250,7 @@
         <v>463</v>
       </c>
       <c r="E374" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F374" s="4">
         <v>1</v>
@@ -8184,7 +8270,7 @@
         <v>463</v>
       </c>
       <c r="E375" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F375" s="4">
         <v>1</v>
@@ -8204,7 +8290,7 @@
         <v>463</v>
       </c>
       <c r="E376" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F376" s="4">
         <v>1</v>
@@ -8241,7 +8327,7 @@
         <v>3</v>
       </c>
       <c r="E378" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="379" spans="1:6" ht="21">
@@ -8704,7 +8790,7 @@
         <v>463</v>
       </c>
       <c r="E412" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F412" s="4">
         <v>1</v>
@@ -8724,7 +8810,7 @@
         <v>463</v>
       </c>
       <c r="E413" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F413" s="4">
         <v>1</v>
@@ -8744,7 +8830,7 @@
         <v>463</v>
       </c>
       <c r="E414" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F414" s="4">
         <v>1</v>
@@ -8764,7 +8850,7 @@
         <v>463</v>
       </c>
       <c r="E415" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F415" s="4">
         <v>1</v>
@@ -8784,7 +8870,7 @@
         <v>463</v>
       </c>
       <c r="E416" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F416" s="4">
         <v>1</v>
@@ -8804,7 +8890,7 @@
         <v>463</v>
       </c>
       <c r="E417" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F417" s="4">
         <v>1</v>
@@ -8875,7 +8961,7 @@
         <v>463</v>
       </c>
       <c r="E421" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F421" s="4">
         <v>1</v>
@@ -8946,7 +9032,7 @@
         <v>463</v>
       </c>
       <c r="E425" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F425" s="4">
         <v>1</v>
@@ -8983,7 +9069,7 @@
         <v>463</v>
       </c>
       <c r="E427" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F427" s="4">
         <v>1</v>
@@ -9020,7 +9106,7 @@
         <v>463</v>
       </c>
       <c r="E429" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F429" s="4">
         <v>1</v>
@@ -9068,7 +9154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:6" ht="21">
+    <row r="433" spans="1:13" ht="21">
       <c r="A433" s="10">
         <v>24</v>
       </c>
@@ -9082,7 +9168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="21">
+    <row r="434" spans="1:13" ht="21">
       <c r="A434" s="10">
         <v>25</v>
       </c>
@@ -9096,7 +9182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:6" ht="21">
+    <row r="435" spans="1:13" ht="21">
       <c r="A435" s="10">
         <v>26</v>
       </c>
@@ -9113,7 +9199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:6" ht="21">
+    <row r="436" spans="1:13" ht="21">
       <c r="A436" s="10">
         <v>27</v>
       </c>
@@ -9130,7 +9216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:6" ht="21">
+    <row r="437" spans="1:13" ht="21">
       <c r="A437" s="10">
         <v>28</v>
       </c>
@@ -9144,13 +9230,13 @@
         <v>463</v>
       </c>
       <c r="E437" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F437" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:6" ht="21">
+    <row r="438" spans="1:13" ht="21">
       <c r="A438" s="10">
         <v>29</v>
       </c>
@@ -9164,13 +9250,13 @@
         <v>463</v>
       </c>
       <c r="E438" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F438" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:6" ht="21">
+    <row r="439" spans="1:13" ht="21">
       <c r="A439" s="10">
         <v>30</v>
       </c>
@@ -9187,7 +9273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:6" ht="21">
+    <row r="440" spans="1:13" ht="21">
       <c r="A440" s="10">
         <v>31</v>
       </c>
@@ -9204,7 +9290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:6" ht="21">
+    <row r="441" spans="1:13" ht="21">
       <c r="A441" s="10">
         <v>32</v>
       </c>
@@ -9221,7 +9307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:6" ht="21">
+    <row r="442" spans="1:13" ht="21">
       <c r="A442" s="10">
         <v>33</v>
       </c>
@@ -9235,13 +9321,13 @@
         <v>463</v>
       </c>
       <c r="E442" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F442" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:6" ht="21">
+    <row r="443" spans="1:13" ht="21">
       <c r="A443" s="10">
         <v>34</v>
       </c>
@@ -9258,7 +9344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:6" ht="21">
+    <row r="444" spans="1:13" ht="21">
       <c r="A444" s="10">
         <v>35</v>
       </c>
@@ -9275,7 +9361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:6" ht="21">
+    <row r="445" spans="1:13" ht="21">
       <c r="A445" s="10">
         <v>36</v>
       </c>
@@ -9285,11 +9371,17 @@
       <c r="C445" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="D445" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="446" spans="1:6" ht="21">
+      <c r="D445" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="E445" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="F445" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:13" ht="21">
       <c r="A446" s="10">
         <v>37</v>
       </c>
@@ -9299,11 +9391,17 @@
       <c r="C446" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="D446" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="447" spans="1:6" ht="21">
+      <c r="D446" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="E446" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="F446" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" ht="21">
       <c r="A447" s="10">
         <v>38</v>
       </c>
@@ -9313,11 +9411,20 @@
       <c r="C447" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="D447" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="448" spans="1:6" ht="21">
+      <c r="D447" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F447" s="4">
+        <v>1</v>
+      </c>
+      <c r="K447" s="1">
+        <v>1</v>
+      </c>
+      <c r="L447" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" ht="21">
       <c r="A448" s="10">
         <v>39</v>
       </c>
@@ -9327,11 +9434,20 @@
       <c r="C448" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="D448" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="449" spans="1:6" ht="21">
+      <c r="D448" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F448" s="4">
+        <v>1</v>
+      </c>
+      <c r="L448" s="1">
+        <v>1</v>
+      </c>
+      <c r="M448" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:14" ht="21">
       <c r="A449" s="10">
         <v>40</v>
       </c>
@@ -9341,11 +9457,20 @@
       <c r="C449" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="D449" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="450" spans="1:6" ht="21">
+      <c r="D449" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F449" s="4">
+        <v>1</v>
+      </c>
+      <c r="M449" s="1">
+        <v>1</v>
+      </c>
+      <c r="N449" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:14" ht="21">
       <c r="A450" s="10">
         <v>41</v>
       </c>
@@ -9355,11 +9480,20 @@
       <c r="C450" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="D450" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="451" spans="1:6" ht="21">
+      <c r="D450" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="E450" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="F450" s="4">
+        <v>1</v>
+      </c>
+      <c r="N450" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:14" ht="21">
       <c r="A451" s="10">
         <v>42</v>
       </c>
@@ -9373,7 +9507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:6" ht="21">
+    <row r="452" spans="1:14" ht="21">
       <c r="A452" s="10">
         <v>43</v>
       </c>
@@ -9387,7 +9521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="453" spans="1:6" ht="21">
+    <row r="453" spans="1:14" ht="21">
       <c r="A453" s="10">
         <v>44</v>
       </c>
@@ -9401,7 +9535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="454" spans="1:6" ht="21">
+    <row r="454" spans="1:14" ht="21">
       <c r="A454" s="10">
         <v>45</v>
       </c>
@@ -9411,11 +9545,14 @@
       <c r="C454" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="D454" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="455" spans="1:6" ht="21">
+      <c r="D454" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F454" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:14" ht="21">
       <c r="A455" s="10">
         <v>46</v>
       </c>
@@ -9425,11 +9562,14 @@
       <c r="C455" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="D455" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="456" spans="1:6" ht="21">
+      <c r="D455" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F455" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:14" ht="21">
       <c r="A456" s="10">
         <v>47</v>
       </c>
@@ -9443,7 +9583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="457" spans="1:6" ht="21">
+    <row r="457" spans="1:14" ht="21">
       <c r="A457" s="10">
         <v>48</v>
       </c>
@@ -9457,7 +9597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="458" spans="1:6" ht="21">
+    <row r="458" spans="1:14" ht="21">
       <c r="A458" s="10">
         <v>49</v>
       </c>
@@ -9471,7 +9611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:6" ht="21">
+    <row r="459" spans="1:14" ht="21">
       <c r="A459" s="10">
         <v>50</v>
       </c>
@@ -9485,7 +9625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="460" spans="1:6" ht="21">
+    <row r="460" spans="1:14" ht="21">
       <c r="A460" s="10">
         <v>51</v>
       </c>
@@ -9499,13 +9639,13 @@
         <v>463</v>
       </c>
       <c r="E460" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F460" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="21">
+    <row r="461" spans="1:14" ht="21">
       <c r="A461" s="10">
         <v>52</v>
       </c>
@@ -9519,7 +9659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:6" ht="21">
+    <row r="462" spans="1:14" ht="21">
       <c r="A462" s="10">
         <v>53</v>
       </c>
@@ -9536,7 +9676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:6" ht="21">
+    <row r="463" spans="1:14" ht="21">
       <c r="A463" s="10">
         <v>54</v>
       </c>
@@ -9550,13 +9690,13 @@
         <v>463</v>
       </c>
       <c r="E463" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F463" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:6" ht="21">
+    <row r="464" spans="1:14" ht="21">
       <c r="A464" s="10">
         <v>55</v>
       </c>
@@ -9587,7 +9727,7 @@
         <v>463</v>
       </c>
       <c r="E465" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F465" s="4">
         <v>1</v>
@@ -9655,7 +9795,7 @@
         <v>463</v>
       </c>
       <c r="E469" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F469" s="4">
         <v>1</v>
@@ -9735,7 +9875,7 @@
         <v>463</v>
       </c>
       <c r="E475" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F475" s="4">
         <v>1</v>
@@ -9806,7 +9946,7 @@
         <v>463</v>
       </c>
       <c r="E479" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F479" s="4">
         <v>1</v>
@@ -9826,7 +9966,7 @@
         <v>463</v>
       </c>
       <c r="E480" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F480" s="4">
         <v>1</v>

--- a/List of questions.xlsx
+++ b/List of questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\BTech\semester4\450 dsa questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\BTech\DSA\450 dsa questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C77DAA6-86E5-4A1B-B2CA-5366CC8F5CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44892D4-3D1C-465A-979B-F7E856745DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -19,6 +19,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1835,7 +1843,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1880,6 +1888,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2204,8 +2215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:N481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A447" zoomScale="70" workbookViewId="0">
-      <selection activeCell="C460" sqref="C460"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="70" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2233,7 +2244,7 @@
       </c>
       <c r="E2" s="7">
         <f>SUM(F6:F481)</f>
-        <v>333</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29.4">
@@ -2242,7 +2253,7 @@
       </c>
       <c r="E3" s="7">
         <f>2*E2/9</f>
-        <v>74</v>
+        <v>76.444444444444443</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21">
@@ -4839,8 +4850,11 @@
       <c r="C163" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D163" s="18" t="s">
-        <v>3</v>
+      <c r="D163" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F163" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="21">
@@ -4870,8 +4884,11 @@
       <c r="C165" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="D165" s="18" t="s">
-        <v>3</v>
+      <c r="D165" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F165" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="21">
@@ -4884,8 +4901,11 @@
       <c r="C166" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D166" s="18" t="s">
-        <v>3</v>
+      <c r="D166" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F166" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="21">
@@ -4898,8 +4918,11 @@
       <c r="C167" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D167" s="18" t="s">
-        <v>3</v>
+      <c r="D167" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F167" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="21">
@@ -4912,8 +4935,11 @@
       <c r="C168" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="D168" s="18" t="s">
-        <v>3</v>
+      <c r="D168" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F168" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="21">
@@ -4926,8 +4952,11 @@
       <c r="C169" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D169" s="18" t="s">
-        <v>3</v>
+      <c r="D169" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F169" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="21">
@@ -4940,8 +4969,11 @@
       <c r="C170" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="D170" s="18" t="s">
-        <v>3</v>
+      <c r="D170" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F170" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="21">
@@ -4954,8 +4986,11 @@
       <c r="C171" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D171" s="18" t="s">
-        <v>3</v>
+      <c r="D171" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F171" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="21">
@@ -4968,8 +5003,11 @@
       <c r="C172" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="D172" s="18" t="s">
-        <v>3</v>
+      <c r="D172" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F172" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="21">
@@ -4982,8 +5020,11 @@
       <c r="C173" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="D173" s="18" t="s">
-        <v>3</v>
+      <c r="D173" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F173" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="21">
@@ -4996,8 +5037,11 @@
       <c r="C174" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="D174" s="18" t="s">
-        <v>3</v>
+      <c r="D174" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F174" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="21">
@@ -7931,7 +7975,7 @@
       <c r="D356" s="16" t="s">
         <v>463</v>
       </c>
-      <c r="F356" s="4">
+      <c r="F356" s="19">
         <v>1</v>
       </c>
     </row>
@@ -7948,7 +7992,7 @@
       <c r="D357" s="16" t="s">
         <v>463</v>
       </c>
-      <c r="F357" s="4">
+      <c r="F357" s="19">
         <v>1</v>
       </c>
     </row>
@@ -7965,7 +8009,7 @@
       <c r="D358" s="16" t="s">
         <v>463</v>
       </c>
-      <c r="F358" s="4">
+      <c r="F358" s="19">
         <v>1</v>
       </c>
     </row>
@@ -8053,7 +8097,7 @@
       <c r="D363" s="16" t="s">
         <v>463</v>
       </c>
-      <c r="F363" s="4">
+      <c r="F363" s="19">
         <v>1</v>
       </c>
     </row>
@@ -8070,7 +8114,7 @@
       <c r="D364" s="16" t="s">
         <v>463</v>
       </c>
-      <c r="F364" s="4">
+      <c r="F364" s="19">
         <v>1</v>
       </c>
     </row>
@@ -8087,7 +8131,7 @@
       <c r="D365" s="16" t="s">
         <v>463</v>
       </c>
-      <c r="F365" s="4">
+      <c r="F365" s="19">
         <v>1</v>
       </c>
     </row>

--- a/List of questions.xlsx
+++ b/List of questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\BTech\DSA\450 dsa questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44892D4-3D1C-465A-979B-F7E856745DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B47931B-42ED-472E-95A0-84B7FBAB76F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="550">
   <si>
     <t>Topic:</t>
   </si>
@@ -1677,6 +1677,12 @@
   </si>
   <si>
     <t>MCM variant</t>
+  </si>
+  <si>
+    <t>refer stack approach</t>
+  </si>
+  <si>
+    <t>interval bst</t>
   </si>
 </sst>
 </file>
@@ -2215,8 +2221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:N481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="70" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="F229" sqref="F229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2244,7 +2250,7 @@
       </c>
       <c r="E2" s="7">
         <f>SUM(F6:F481)</f>
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29.4">
@@ -2253,7 +2259,7 @@
       </c>
       <c r="E3" s="7">
         <f>2*E2/9</f>
-        <v>76.444444444444443</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21">
@@ -5912,8 +5918,11 @@
       <c r="C227" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="D227" s="18" t="s">
-        <v>3</v>
+      <c r="D227" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F227" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="21">
@@ -5926,8 +5935,11 @@
       <c r="C228" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="D228" s="18" t="s">
-        <v>3</v>
+      <c r="D228" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F228" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="21">
@@ -5940,8 +5952,11 @@
       <c r="C229" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="D229" s="18" t="s">
-        <v>3</v>
+      <c r="D229" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F229" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="21">
@@ -5954,8 +5969,11 @@
       <c r="C230" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="D230" s="18" t="s">
-        <v>3</v>
+      <c r="D230" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F230" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="21">
@@ -5968,8 +5986,14 @@
       <c r="C231" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="D231" s="18" t="s">
-        <v>3</v>
+      <c r="D231" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="F231" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="21">
@@ -5982,8 +6006,14 @@
       <c r="C232" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="D232" s="18" t="s">
-        <v>3</v>
+      <c r="D232" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F232" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="21">
@@ -6033,8 +6063,11 @@
       <c r="C235" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="D235" s="18" t="s">
-        <v>3</v>
+      <c r="D235" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F235" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="21">

--- a/List of questions.xlsx
+++ b/List of questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\BTech\DSA\450 dsa questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B47931B-42ED-472E-95A0-84B7FBAB76F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7CB3AD-F993-43A4-B7B3-6C66E744959B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="551">
   <si>
     <t>Topic:</t>
   </si>
@@ -1683,6 +1683,9 @@
   </si>
   <si>
     <t>interval bst</t>
+  </si>
+  <si>
+    <t>nice, important</t>
   </si>
 </sst>
 </file>
@@ -2219,10 +2222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:N481"/>
+  <dimension ref="A1:F481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="F229" sqref="F229"/>
+      <selection activeCell="M450" sqref="M450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2250,7 +2253,7 @@
       </c>
       <c r="E2" s="7">
         <f>SUM(F6:F481)</f>
-        <v>351</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29.4">
@@ -2259,7 +2262,7 @@
       </c>
       <c r="E3" s="7">
         <f>2*E2/9</f>
-        <v>78</v>
+        <v>81.111111111111114</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21">
@@ -9199,8 +9202,11 @@
       <c r="C430" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="D430" s="18" t="s">
-        <v>3</v>
+      <c r="D430" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F430" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:6" ht="21">
@@ -9213,8 +9219,11 @@
       <c r="C431" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="D431" s="18" t="s">
-        <v>3</v>
+      <c r="D431" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F431" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:6" ht="21">
@@ -9227,11 +9236,14 @@
       <c r="C432" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="D432" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="433" spans="1:13" ht="21">
+      <c r="D432" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F432" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" ht="21">
       <c r="A433" s="10">
         <v>24</v>
       </c>
@@ -9241,11 +9253,14 @@
       <c r="C433" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="D433" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="434" spans="1:13" ht="21">
+      <c r="D433" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F433" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" ht="21">
       <c r="A434" s="10">
         <v>25</v>
       </c>
@@ -9255,11 +9270,14 @@
       <c r="C434" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="D434" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="435" spans="1:13" ht="21">
+      <c r="D434" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F434" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" ht="21">
       <c r="A435" s="10">
         <v>26</v>
       </c>
@@ -9276,7 +9294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:13" ht="21">
+    <row r="436" spans="1:6" ht="21">
       <c r="A436" s="10">
         <v>27</v>
       </c>
@@ -9293,7 +9311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:13" ht="21">
+    <row r="437" spans="1:6" ht="21">
       <c r="A437" s="10">
         <v>28</v>
       </c>
@@ -9313,7 +9331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:13" ht="21">
+    <row r="438" spans="1:6" ht="21">
       <c r="A438" s="10">
         <v>29</v>
       </c>
@@ -9333,7 +9351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:13" ht="21">
+    <row r="439" spans="1:6" ht="21">
       <c r="A439" s="10">
         <v>30</v>
       </c>
@@ -9350,7 +9368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:13" ht="21">
+    <row r="440" spans="1:6" ht="21">
       <c r="A440" s="10">
         <v>31</v>
       </c>
@@ -9367,7 +9385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:13" ht="21">
+    <row r="441" spans="1:6" ht="21">
       <c r="A441" s="10">
         <v>32</v>
       </c>
@@ -9384,7 +9402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:13" ht="21">
+    <row r="442" spans="1:6" ht="21">
       <c r="A442" s="10">
         <v>33</v>
       </c>
@@ -9404,7 +9422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:13" ht="21">
+    <row r="443" spans="1:6" ht="21">
       <c r="A443" s="10">
         <v>34</v>
       </c>
@@ -9421,7 +9439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:13" ht="21">
+    <row r="444" spans="1:6" ht="21">
       <c r="A444" s="10">
         <v>35</v>
       </c>
@@ -9438,7 +9456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:13" ht="21">
+    <row r="445" spans="1:6" ht="21">
       <c r="A445" s="10">
         <v>36</v>
       </c>
@@ -9458,7 +9476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:13" ht="21">
+    <row r="446" spans="1:6" ht="21">
       <c r="A446" s="10">
         <v>37</v>
       </c>
@@ -9478,7 +9496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:13" ht="21">
+    <row r="447" spans="1:6" ht="21">
       <c r="A447" s="10">
         <v>38</v>
       </c>
@@ -9494,14 +9512,8 @@
       <c r="F447" s="4">
         <v>1</v>
       </c>
-      <c r="K447" s="1">
-        <v>1</v>
-      </c>
-      <c r="L447" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="448" spans="1:13" ht="21">
+    </row>
+    <row r="448" spans="1:6" ht="21">
       <c r="A448" s="10">
         <v>39</v>
       </c>
@@ -9517,14 +9529,8 @@
       <c r="F448" s="4">
         <v>1</v>
       </c>
-      <c r="L448" s="1">
-        <v>1</v>
-      </c>
-      <c r="M448" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="449" spans="1:14" ht="21">
+    </row>
+    <row r="449" spans="1:6" ht="21">
       <c r="A449" s="10">
         <v>40</v>
       </c>
@@ -9540,14 +9546,8 @@
       <c r="F449" s="4">
         <v>1</v>
       </c>
-      <c r="M449" s="1">
-        <v>1</v>
-      </c>
-      <c r="N449" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="450" spans="1:14" ht="21">
+    </row>
+    <row r="450" spans="1:6" ht="21">
       <c r="A450" s="10">
         <v>41</v>
       </c>
@@ -9566,11 +9566,8 @@
       <c r="F450" s="4">
         <v>1</v>
       </c>
-      <c r="N450" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:14" ht="21">
+    </row>
+    <row r="451" spans="1:6" ht="21">
       <c r="A451" s="10">
         <v>42</v>
       </c>
@@ -9580,11 +9577,14 @@
       <c r="C451" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="D451" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="452" spans="1:14" ht="21">
+      <c r="D451" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F451" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" ht="21">
       <c r="A452" s="10">
         <v>43</v>
       </c>
@@ -9594,11 +9594,14 @@
       <c r="C452" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="D452" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="453" spans="1:14" ht="21">
+      <c r="D452" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F452" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" ht="21">
       <c r="A453" s="10">
         <v>44</v>
       </c>
@@ -9608,11 +9611,14 @@
       <c r="C453" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="D453" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="454" spans="1:14" ht="21">
+      <c r="D453" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F453" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" ht="21">
       <c r="A454" s="10">
         <v>45</v>
       </c>
@@ -9629,7 +9635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:14" ht="21">
+    <row r="455" spans="1:6" ht="21">
       <c r="A455" s="10">
         <v>46</v>
       </c>
@@ -9646,7 +9652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:14" ht="21">
+    <row r="456" spans="1:6" ht="21">
       <c r="A456" s="10">
         <v>47</v>
       </c>
@@ -9656,11 +9662,17 @@
       <c r="C456" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="D456" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="457" spans="1:14" ht="21">
+      <c r="D456" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="E456" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="F456" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" ht="21">
       <c r="A457" s="10">
         <v>48</v>
       </c>
@@ -9670,11 +9682,14 @@
       <c r="C457" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="D457" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="458" spans="1:14" ht="21">
+      <c r="D457" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F457" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" ht="21">
       <c r="A458" s="10">
         <v>49</v>
       </c>
@@ -9684,11 +9699,14 @@
       <c r="C458" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="D458" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="459" spans="1:14" ht="21">
+      <c r="D458" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F458" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" ht="21">
       <c r="A459" s="10">
         <v>50</v>
       </c>
@@ -9698,11 +9716,14 @@
       <c r="C459" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="D459" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="460" spans="1:14" ht="21">
+      <c r="D459" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F459" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" ht="21">
       <c r="A460" s="10">
         <v>51</v>
       </c>
@@ -9722,7 +9743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:14" ht="21">
+    <row r="461" spans="1:6" ht="21">
       <c r="A461" s="10">
         <v>52</v>
       </c>
@@ -9732,11 +9753,14 @@
       <c r="C461" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="D461" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="462" spans="1:14" ht="21">
+      <c r="D461" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F461" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" ht="21">
       <c r="A462" s="10">
         <v>53</v>
       </c>
@@ -9753,7 +9777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:14" ht="21">
+    <row r="463" spans="1:6" ht="21">
       <c r="A463" s="10">
         <v>54</v>
       </c>
@@ -9773,7 +9797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:14" ht="21">
+    <row r="464" spans="1:6" ht="21">
       <c r="A464" s="10">
         <v>55</v>
       </c>
@@ -9837,8 +9861,11 @@
       <c r="C467" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="D467" s="18" t="s">
-        <v>3</v>
+      <c r="D467" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F467" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:6" ht="21">
